--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T09:43:56+00:00</t>
+    <t>2022-07-04T09:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T09:45:33+00:00</t>
+    <t>2022-07-04T09:46:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T09:46:47+00:00</t>
+    <t>2022-07-04T09:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T09:47:47+00:00</t>
+    <t>2022-07-04T12:09:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T12:09:29+00:00</t>
+    <t>2022-07-04T12:29:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T12:29:49+00:00</t>
+    <t>2022-07-04T12:38:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T12:38:46+00:00</t>
+    <t>2022-07-04T12:45:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T12:45:37+00:00</t>
+    <t>2022-07-04T13:31:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T13:31:09+00:00</t>
+    <t>2022-07-04T13:52:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T13:52:58+00:00</t>
+    <t>2022-07-04T16:05:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$57</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="416">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T16:05:57+00:00</t>
+    <t>2022-07-04T19:16:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1202,7 +1202,7 @@
 </t>
   </si>
   <si>
-    <t>Elements to be executed or to be present before this task can start</t>
+    <t>Elements to be executed or to be present before this task can start. Always use http://snomed.info/sct#704326004 as type</t>
   </si>
   <si>
     <t>Additional information that may be needed in the execution of the task.</t>
@@ -1245,84 +1245,10 @@
     <t>Codes to identify types of input parameters.  These will typically be specific to a particular workflow.  E.g. "Comparison source", "Applicable consent", "Concomitent Medications", etc.</t>
   </si>
   <si>
-    <t>Task.input.type.id</t>
-  </si>
-  <si>
-    <t>Task.input.type.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Task.input.type.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://snomed.info/sct"/&gt;
-  &lt;code value="704326004"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Task.input.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
     <t>Task.input.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription|https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription-nursing-gen-medication)
 </t>
   </si>
   <si>
@@ -1681,7 +1607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM61"/>
+  <dimension ref="A1:AM57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1700,7 +1626,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.48046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="114.58984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1717,7 +1643,7 @@
     <col min="25" max="25" width="83.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1728,7 +1654,7 @@
     <col min="36" max="36" width="55.72265625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="109.98828125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="28.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7293,7 +7219,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>79</v>
@@ -7308,13 +7234,13 @@
         <v>70</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7365,10 +7291,10 @@
         <v>70</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7377,13 +7303,13 @@
         <v>70</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>70</v>
@@ -7394,11 +7320,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7417,18 +7343,18 @@
         <v>70</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>125</v>
+        <v>344</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>126</v>
+        <v>400</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>70</v>
       </c>
@@ -7464,19 +7390,19 @@
         <v>70</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>397</v>
+        <v>70</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>398</v>
+        <v>70</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AD52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE52" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>71</v>
@@ -7488,13 +7414,13 @@
         <v>70</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>70</v>
@@ -7505,7 +7431,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7516,7 +7442,7 @@
         <v>71</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>70</v>
@@ -7525,23 +7451,19 @@
         <v>70</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>401</v>
+        <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>402</v>
+        <v>350</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>70</v>
       </c>
@@ -7550,7 +7472,7 @@
         <v>70</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>406</v>
+        <v>70</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>70</v>
@@ -7589,47 +7511,47 @@
         <v>70</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>407</v>
+        <v>352</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>408</v>
+        <v>353</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>409</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>71</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>70</v>
@@ -7638,23 +7560,21 @@
         <v>70</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>411</v>
+        <v>126</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>412</v>
+        <v>355</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>70</v>
       </c>
@@ -7702,68 +7622,72 @@
         <v>70</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>416</v>
+        <v>353</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>417</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>70</v>
+        <v>358</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>70</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>419</v>
+        <v>125</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>420</v>
+        <v>359</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>70</v>
       </c>
@@ -7811,25 +7735,25 @@
         <v>70</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>418</v>
+        <v>361</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>384</v>
+        <v>122</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>70</v>
@@ -7840,18 +7764,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>70</v>
+        <v>389</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>70</v>
@@ -7863,17 +7787,17 @@
         <v>70</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>344</v>
+        <v>184</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>70</v>
@@ -7898,10 +7822,10 @@
         <v>70</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>70</v>
+        <v>410</v>
       </c>
       <c r="Y56" t="s" s="2">
         <v>70</v>
@@ -7922,13 +7846,13 @@
         <v>70</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>70</v>
@@ -7951,7 +7875,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7959,7 +7883,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>79</v>
@@ -7974,16 +7898,18 @@
         <v>70</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>81</v>
+        <v>412</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>350</v>
+        <v>413</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>351</v>
+        <v>414</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>70</v>
       </c>
@@ -8031,10 +7957,10 @@
         <v>70</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>352</v>
+        <v>411</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8043,469 +7969,23 @@
         <v>70</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AM61" t="s" s="2">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM61">
+  <autoFilter ref="A1:AM57">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8515,7 +7995,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI56">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:16:38+00:00</t>
+    <t>2022-07-06T06:33:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-06T06:33:21+00:00</t>
+    <t>2022-07-06T06:34:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-06T06:34:35+00:00</t>
+    <t>2022-07-28T12:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1617,39 +1617,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="114.58984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="169.1328125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="83.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="55.72265625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="109.98828125" customWidth="true" bestFit="true"/>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-28T12:59:06+00:00</t>
+    <t>2022-07-28T13:03:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-28T13:03:13+00:00</t>
+    <t>2022-07-28T13:55:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-28T13:55:09+00:00</t>
+    <t>2022-07-28T14:03:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-28T14:03:02+00:00</t>
+    <t>2022-07-28T14:09:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-28T14:09:03+00:00</t>
+    <t>2022-07-28T14:11:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="417">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-28T14:11:37+00:00</t>
+    <t>2022-09-26T07:00:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -262,458 +262,462 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Task.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Task.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Task.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Task.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Task.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Task.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Task.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Task.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Task Instance Identifier</t>
+  </si>
+  <si>
+    <t>The business identifier for this task.</t>
+  </si>
+  <si>
+    <t>Request.identifier, Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Task.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(ActivityDefinition)
+</t>
+  </si>
+  <si>
+    <t>Formal definition of task</t>
+  </si>
+  <si>
+    <t>The URL pointing to a *FHIR*-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Task.</t>
+  </si>
+  <si>
+    <t>Enables a formal definition of how he task is to be performed, enabling automation.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesCanonical, Event.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>Task.instantiatesUri</t>
+  </si>
+  <si>
+    <t>The URL pointing to an *externally* maintained  protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Task.</t>
+  </si>
+  <si>
+    <t>Enables a formal definition of how he task is to be performed (e.g. using BPMN, BPEL, XPDL or other formal notation to be associated with a task), enabling automation.</t>
+  </si>
+  <si>
+    <t>Event.instantiatesUrl</t>
+  </si>
+  <si>
+    <t>Task.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Request fulfilled by this task</t>
+  </si>
+  <si>
+    <t>BasedOn refers to a higher-level authorization that triggered the creation of the task.  It references a "request" resource such as a ServiceRequest, MedicationRequest, ServiceRequest, CarePlan, etc. which is distinct from the "request" resource the task is seeking to fulfill.  This latter resource is referenced by FocusOn.  For example, based on a ServiceRequest (= BasedOn), a task is created to fulfill a procedureRequest ( = FocusOn ) to collect a specimen from a patient.</t>
+  </si>
+  <si>
+    <t>Request.basedOn, Event.basedOn</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target[moodCode=INT]</t>
+  </si>
+  <si>
+    <t>Task.groupIdentifier</t>
+  </si>
+  <si>
+    <t>Requisition or grouper id</t>
+  </si>
+  <si>
+    <t>An identifier that links together multiple tasks and other requests that were created in the same context.</t>
+  </si>
+  <si>
+    <t>Billing and/or reporting can be linked to whether multiple requests were created as a single unit.</t>
+  </si>
+  <si>
+    <t>Request.groupIdentifier</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT].id</t>
+  </si>
+  <si>
+    <t>Task.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Task)
+</t>
+  </si>
+  <si>
+    <t>Composite task</t>
+  </si>
+  <si>
+    <t>Task that this particular task is part of.</t>
+  </si>
+  <si>
+    <t>This should usually be 0..1.</t>
+  </si>
+  <si>
+    <t>Allows tasks to be broken down into sub-steps (and this division can occur independent of the original task).</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT]</t>
+  </si>
+  <si>
+    <t>Task.status</t>
+  </si>
+  <si>
+    <t>draft | requested | received | accepted | +</t>
+  </si>
+  <si>
+    <t>The current status of the task.</t>
+  </si>
+  <si>
+    <t>These states enable coordination of task status with off-the-shelf workflow solutions that support automation of tasks.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/task-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status, Event.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Task.statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Reason for current status</t>
+  </si>
+  <si>
+    <t>An explanation as to why this task is held, failed, was refused, etc.</t>
+  </si>
+  <si>
+    <t>This applies to the current status.  Look at the history of the task to see reasons for past statuses.</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
+  </si>
+  <si>
+    <t>Task.businessStatus</t>
+  </si>
+  <si>
+    <t>E.g. "Specimen collected", "IV prepped"</t>
+  </si>
+  <si>
+    <t>Contains business-specific nuances of the business state.</t>
+  </si>
+  <si>
+    <t>There's often a need to track substates of a task - this is often variable by specific workflow implementation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The domain-specific business-contextual sub-state of the task.  For example: "Blood drawn", "IV inserted", "Awaiting physician signature", etc.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="business status"]</t>
+  </si>
+  <si>
+    <t>Task.intent</t>
+  </si>
+  <si>
+    <t>unknown | proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
+  </si>
+  <si>
+    <t>Indicates the "level" of actionability associated with the Task, i.e. i+R[9]Cs this a proposed task, a planned task, an actionable task, etc.</t>
+  </si>
+  <si>
+    <t>This element is immutable.  Proposed tasks, planned tasks, etc. must be distinct instances.
+In most cases, Tasks will have an intent of "order".</t>
+  </si>
+  <si>
+    <t>Distinguishes whether the task is a proposal, plan or full order.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/task-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>.moodCode</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Task.priority</t>
+  </si>
+  <si>
+    <t>routine | urgent | asap | stat</t>
+  </si>
+  <si>
+    <t>Indicates how quickly the Task should be addressed with respect to other requests.</t>
+  </si>
+  <si>
+    <t>Used to identify the service level expected while performing a task.</t>
+  </si>
+  <si>
+    <t>If missing, this task should be performed with normal priority</t>
+  </si>
+  <si>
+    <t>The task's priority.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.priority</t>
+  </si>
+  <si>
+    <t>.priorityCode</t>
+  </si>
+  <si>
+    <t>FiveWs.grade</t>
+  </si>
+  <si>
+    <t>Task.code</t>
+  </si>
+  <si>
+    <t>Task Type</t>
+  </si>
+  <si>
+    <t>A name or code (or both) briefly describing what the task involves.</t>
+  </si>
+  <si>
+    <t>The title (eg "My Tasks", "Outstanding Tasks for Patient X") should go into the code.</t>
+  </si>
+  <si>
+    <t>Codes to identify what the task involves.  These will typically be specific to a particular workflow.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/task-code</t>
+  </si>
+  <si>
+    <t>Request.code, Event.code</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>Task.description</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Task.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Task.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Task.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Task.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Task.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Task.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Task.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Task.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Task Instance Identifier</t>
-  </si>
-  <si>
-    <t>The business identifier for this task.</t>
-  </si>
-  <si>
-    <t>Request.identifier, Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Task.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(ActivityDefinition)
-</t>
-  </si>
-  <si>
-    <t>Formal definition of task</t>
-  </si>
-  <si>
-    <t>The URL pointing to a *FHIR*-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Task.</t>
-  </si>
-  <si>
-    <t>Enables a formal definition of how he task is to be performed, enabling automation.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesCanonical, Event.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>Task.instantiatesUri</t>
-  </si>
-  <si>
-    <t>The URL pointing to an *externally* maintained  protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Task.</t>
-  </si>
-  <si>
-    <t>Enables a formal definition of how he task is to be performed (e.g. using BPMN, BPEL, XPDL or other formal notation to be associated with a task), enabling automation.</t>
-  </si>
-  <si>
-    <t>Event.instantiatesUrl</t>
-  </si>
-  <si>
-    <t>Task.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Request fulfilled by this task</t>
-  </si>
-  <si>
-    <t>BasedOn refers to a higher-level authorization that triggered the creation of the task.  It references a "request" resource such as a ServiceRequest, MedicationRequest, ServiceRequest, CarePlan, etc. which is distinct from the "request" resource the task is seeking to fulfill.  This latter resource is referenced by FocusOn.  For example, based on a ServiceRequest (= BasedOn), a task is created to fulfill a procedureRequest ( = FocusOn ) to collect a specimen from a patient.</t>
-  </si>
-  <si>
-    <t>Request.basedOn, Event.basedOn</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target[moodCode=INT]</t>
-  </si>
-  <si>
-    <t>Task.groupIdentifier</t>
-  </si>
-  <si>
-    <t>Requisition or grouper id</t>
-  </si>
-  <si>
-    <t>An identifier that links together multiple tasks and other requests that were created in the same context.</t>
-  </si>
-  <si>
-    <t>Billing and/or reporting can be linked to whether multiple requests were created as a single unit.</t>
-  </si>
-  <si>
-    <t>Request.groupIdentifier</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT].id</t>
-  </si>
-  <si>
-    <t>Task.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Task)
-</t>
-  </si>
-  <si>
-    <t>Composite task</t>
-  </si>
-  <si>
-    <t>Task that this particular task is part of.</t>
-  </si>
-  <si>
-    <t>This should usually be 0..1.</t>
-  </si>
-  <si>
-    <t>Allows tasks to be broken down into sub-steps (and this division can occur independent of the original task).</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT]</t>
-  </si>
-  <si>
-    <t>Task.status</t>
-  </si>
-  <si>
-    <t>draft | requested | received | accepted | +</t>
-  </si>
-  <si>
-    <t>The current status of the task.</t>
-  </si>
-  <si>
-    <t>These states enable coordination of task status with off-the-shelf workflow solutions that support automation of tasks.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/task-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status, Event.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Task.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Reason for current status</t>
-  </si>
-  <si>
-    <t>An explanation as to why this task is held, failed, was refused, etc.</t>
-  </si>
-  <si>
-    <t>This applies to the current status.  Look at the history of the task to see reasons for past statuses.</t>
-  </si>
-  <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
-  </si>
-  <si>
-    <t>Task.businessStatus</t>
-  </si>
-  <si>
-    <t>E.g. "Specimen collected", "IV prepped"</t>
-  </si>
-  <si>
-    <t>Contains business-specific nuances of the business state.</t>
-  </si>
-  <si>
-    <t>There's often a need to track substates of a task - this is often variable by specific workflow implementation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The domain-specific business-contextual sub-state of the task.  For example: "Blood drawn", "IV inserted", "Awaiting physician signature", etc.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="business status"]</t>
-  </si>
-  <si>
-    <t>Task.intent</t>
-  </si>
-  <si>
-    <t>unknown | proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
-  </si>
-  <si>
-    <t>Indicates the "level" of actionability associated with the Task, i.e. i+R[9]Cs this a proposed task, a planned task, an actionable task, etc.</t>
-  </si>
-  <si>
-    <t>This element is immutable.  Proposed tasks, planned tasks, etc. must be distinct instances.
-In most cases, Tasks will have an intent of "order".</t>
-  </si>
-  <si>
-    <t>Distinguishes whether the task is a proposal, plan or full order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/task-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>.moodCode</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Task.priority</t>
-  </si>
-  <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>Indicates how quickly the Task should be addressed with respect to other requests.</t>
-  </si>
-  <si>
-    <t>Used to identify the service level expected while performing a task.</t>
-  </si>
-  <si>
-    <t>If missing, this task should be performed with normal priority</t>
-  </si>
-  <si>
-    <t>The task's priority.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.priority</t>
-  </si>
-  <si>
-    <t>.priorityCode</t>
-  </si>
-  <si>
-    <t>FiveWs.grade</t>
-  </si>
-  <si>
-    <t>Task.code</t>
-  </si>
-  <si>
-    <t>Task Type</t>
-  </si>
-  <si>
-    <t>A name or code (or both) briefly describing what the task involves.</t>
-  </si>
-  <si>
-    <t>The title (eg "My Tasks", "Outstanding Tasks for Patient X") should go into the code.</t>
-  </si>
-  <si>
-    <t>Codes to identify what the task involves.  These will typically be specific to a particular workflow.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/task-code</t>
-  </si>
-  <si>
-    <t>Request.code, Event.code</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>Task.description</t>
   </si>
   <si>
     <t>Human-readable explanation of task</t>
@@ -4128,13 +4132,13 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4203,7 +4207,7 @@
         <v>70</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>70</v>
@@ -4214,7 +4218,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4240,16 +4244,16 @@
         <v>155</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>70</v>
@@ -4298,7 +4302,7 @@
         <v>70</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>71</v>
@@ -4316,7 +4320,7 @@
         <v>70</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>224</v>
@@ -4327,11 +4331,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4353,14 +4357,14 @@
         <v>155</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>70</v>
@@ -4409,7 +4413,7 @@
         <v>70</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>71</v>
@@ -4424,13 +4428,13 @@
         <v>91</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>70</v>
@@ -4438,7 +4442,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4461,17 +4465,17 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>70</v>
@@ -4520,7 +4524,7 @@
         <v>70</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>71</v>
@@ -4535,13 +4539,13 @@
         <v>91</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>70</v>
@@ -4549,7 +4553,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4572,13 +4576,13 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4629,7 +4633,7 @@
         <v>70</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>71</v>
@@ -4644,13 +4648,13 @@
         <v>91</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>70</v>
@@ -4658,11 +4662,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4681,17 +4685,17 @@
         <v>70</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>70</v>
@@ -4740,7 +4744,7 @@
         <v>70</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>71</v>
@@ -4749,19 +4753,19 @@
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>70</v>
@@ -4769,11 +4773,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4792,17 +4796,17 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>70</v>
@@ -4851,7 +4855,7 @@
         <v>70</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>71</v>
@@ -4860,7 +4864,7 @@
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>91</v>
@@ -4869,7 +4873,7 @@
         <v>70</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>70</v>
@@ -4880,7 +4884,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4903,17 +4907,17 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>70</v>
@@ -4962,7 +4966,7 @@
         <v>70</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>71</v>
@@ -4977,13 +4981,13 @@
         <v>91</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>70</v>
@@ -4991,7 +4995,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5017,14 +5021,14 @@
         <v>184</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>70</v>
@@ -5052,10 +5056,10 @@
         <v>103</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>70</v>
@@ -5073,7 +5077,7 @@
         <v>70</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>71</v>
@@ -5088,13 +5092,13 @@
         <v>91</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>70</v>
@@ -5102,11 +5106,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5125,19 +5129,19 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>70</v>
@@ -5186,7 +5190,7 @@
         <v>70</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>71</v>
@@ -5201,13 +5205,13 @@
         <v>91</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>70</v>
@@ -5215,7 +5219,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5238,17 +5242,17 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>70</v>
@@ -5297,7 +5301,7 @@
         <v>70</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>71</v>
@@ -5312,13 +5316,13 @@
         <v>91</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>70</v>
@@ -5326,7 +5330,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5352,13 +5356,13 @@
         <v>184</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5387,7 +5391,7 @@
         <v>194</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y34" t="s" s="2">
         <v>70</v>
@@ -5408,7 +5412,7 @@
         <v>70</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>71</v>
@@ -5423,21 +5427,21 @@
         <v>91</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5463,13 +5467,13 @@
         <v>155</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5519,7 +5523,7 @@
         <v>70</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>71</v>
@@ -5534,13 +5538,13 @@
         <v>91</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>70</v>
@@ -5548,7 +5552,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5571,13 +5575,13 @@
         <v>70</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5628,7 +5632,7 @@
         <v>70</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>71</v>
@@ -5643,21 +5647,21 @@
         <v>91</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5680,13 +5684,13 @@
         <v>70</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5737,7 +5741,7 @@
         <v>70</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>71</v>
@@ -5752,10 +5756,10 @@
         <v>91</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>70</v>
@@ -5766,11 +5770,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5789,16 +5793,16 @@
         <v>70</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5848,7 +5852,7 @@
         <v>70</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>71</v>
@@ -5863,10 +5867,10 @@
         <v>91</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>70</v>
@@ -5877,7 +5881,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5900,17 +5904,17 @@
         <v>70</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>70</v>
@@ -5959,7 +5963,7 @@
         <v>70</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>71</v>
@@ -5977,7 +5981,7 @@
         <v>70</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>70</v>
@@ -5988,7 +5992,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6011,13 +6015,13 @@
         <v>70</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6068,7 +6072,7 @@
         <v>70</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>71</v>
@@ -6086,7 +6090,7 @@
         <v>70</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>70</v>
@@ -6097,7 +6101,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6126,7 +6130,7 @@
         <v>126</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>128</v>
@@ -6179,7 +6183,7 @@
         <v>70</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>71</v>
@@ -6197,7 +6201,7 @@
         <v>70</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>70</v>
@@ -6208,11 +6212,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6234,10 +6238,10 @@
         <v>125</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>128</v>
@@ -6292,7 +6296,7 @@
         <v>70</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>71</v>
@@ -6321,7 +6325,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6344,17 +6348,17 @@
         <v>70</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>70</v>
@@ -6403,7 +6407,7 @@
         <v>70</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>71</v>
@@ -6421,7 +6425,7 @@
         <v>70</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>70</v>
@@ -6432,7 +6436,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6455,19 +6459,19 @@
         <v>70</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>70</v>
@@ -6516,7 +6520,7 @@
         <v>70</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>71</v>
@@ -6534,7 +6538,7 @@
         <v>70</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>70</v>
@@ -6545,7 +6549,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6568,13 +6572,13 @@
         <v>70</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6625,7 +6629,7 @@
         <v>70</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>71</v>
@@ -6643,7 +6647,7 @@
         <v>70</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>70</v>
@@ -6654,11 +6658,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6677,17 +6681,17 @@
         <v>70</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>70</v>
@@ -6736,7 +6740,7 @@
         <v>70</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>71</v>
@@ -6754,7 +6758,7 @@
         <v>70</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>70</v>
@@ -6765,7 +6769,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6788,13 +6792,13 @@
         <v>70</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6845,7 +6849,7 @@
         <v>70</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>71</v>
@@ -6863,7 +6867,7 @@
         <v>70</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>70</v>
@@ -6874,7 +6878,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6903,7 +6907,7 @@
         <v>126</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>128</v>
@@ -6956,7 +6960,7 @@
         <v>70</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>71</v>
@@ -6974,7 +6978,7 @@
         <v>70</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>70</v>
@@ -6985,11 +6989,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7011,10 +7015,10 @@
         <v>125</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>128</v>
@@ -7069,7 +7073,7 @@
         <v>70</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>71</v>
@@ -7098,11 +7102,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7124,16 +7128,16 @@
         <v>184</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>70</v>
@@ -7161,7 +7165,7 @@
         <v>194</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y50" t="s" s="2">
         <v>70</v>
@@ -7182,7 +7186,7 @@
         <v>70</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7200,7 +7204,7 @@
         <v>70</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>70</v>
@@ -7211,7 +7215,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7234,13 +7238,13 @@
         <v>70</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7291,7 +7295,7 @@
         <v>70</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7309,7 +7313,7 @@
         <v>70</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>70</v>
@@ -7320,7 +7324,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7343,17 +7347,17 @@
         <v>70</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>70</v>
@@ -7402,7 +7406,7 @@
         <v>70</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>71</v>
@@ -7420,7 +7424,7 @@
         <v>70</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>70</v>
@@ -7431,7 +7435,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7454,13 +7458,13 @@
         <v>70</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7511,7 +7515,7 @@
         <v>70</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>71</v>
@@ -7529,7 +7533,7 @@
         <v>70</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>70</v>
@@ -7540,7 +7544,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7569,7 +7573,7 @@
         <v>126</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>128</v>
@@ -7622,7 +7626,7 @@
         <v>70</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>71</v>
@@ -7640,7 +7644,7 @@
         <v>70</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>70</v>
@@ -7651,11 +7655,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7677,10 +7681,10 @@
         <v>125</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>128</v>
@@ -7735,7 +7739,7 @@
         <v>70</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>71</v>
@@ -7764,11 +7768,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7790,14 +7794,14 @@
         <v>184</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>70</v>
@@ -7825,7 +7829,7 @@
         <v>194</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Y56" t="s" s="2">
         <v>70</v>
@@ -7846,7 +7850,7 @@
         <v>70</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -7864,7 +7868,7 @@
         <v>70</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>70</v>
@@ -7875,7 +7879,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7898,17 +7902,17 @@
         <v>70</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>70</v>
@@ -7957,7 +7961,7 @@
         <v>70</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -7975,7 +7979,7 @@
         <v>70</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>70</v>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T07:00:23+00:00</t>
+    <t>2022-09-26T07:01:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T07:01:19+00:00</t>
+    <t>2022-09-26T07:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T07:14:34+00:00</t>
+    <t>2022-09-26T07:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T07:35:57+00:00</t>
+    <t>2022-09-26T07:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T07:40:38+00:00</t>
+    <t>2022-09-26T07:47:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T07:47:59+00:00</t>
+    <t>2022-09-26T09:04:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -601,7 +601,7 @@
     <t>This applies to the current status.  Look at the history of the task to see reasons for past statuses.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-treatment-status-reason</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
@@ -1644,7 +1644,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="83.01171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T09:04:29+00:00</t>
+    <t>2022-09-26T12:48:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="419">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,10 +57,16 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T12:48:08+00:00</t>
+    <t>2022-09-26T15:07:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>
@@ -1460,7 +1466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1548,21 +1554,21 @@
       <c r="A11" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" t="s" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s" s="2">
         <v>20</v>
       </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -1602,6 +1608,14 @@
       </c>
       <c r="B18" t="s" s="2">
         <v>30</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1663,6329 +1677,6329 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="AF17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="AM35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T15:07:54+00:00</t>
+    <t>2022-10-03T11:30:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="418">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-03T11:30:02+00:00</t>
+    <t>2022-10-14T14:40:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -247,10 +247,6 @@
   </si>
   <si>
     <t>A task to be performed.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}</t>
   </si>
   <si>
     <t>Request, Event</t>
@@ -1888,13 +1884,13 @@
         <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>72</v>
@@ -1905,7 +1901,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1916,28 +1912,28 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1987,13 +1983,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -2016,7 +2012,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2027,25 +2023,25 @@
         <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2096,19 +2092,19 @@
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>72</v>
@@ -2125,7 +2121,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2136,28 +2132,28 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2207,19 +2203,19 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>72</v>
@@ -2236,7 +2232,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2247,7 +2243,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -2259,16 +2255,16 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2294,43 +2290,43 @@
         <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>108</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>72</v>
@@ -2347,18 +2343,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -2370,16 +2366,16 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2429,25 +2425,25 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>72</v>
@@ -2458,11 +2454,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2481,16 +2477,16 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2540,7 +2536,7 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
@@ -2558,7 +2554,7 @@
         <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>72</v>
@@ -2569,11 +2565,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2592,16 +2588,16 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2651,7 +2647,7 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
@@ -2663,13 +2659,13 @@
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>72</v>
@@ -2680,11 +2676,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2697,25 +2693,25 @@
         <v>72</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>72</v>
@@ -2764,7 +2760,7 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -2776,13 +2772,13 @@
         <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>72</v>
@@ -2793,7 +2789,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2816,13 +2812,13 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2873,7 +2869,7 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
@@ -2885,16 +2881,16 @@
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>72</v>
@@ -2902,7 +2898,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2913,29 +2909,29 @@
         <v>73</v>
       </c>
       <c r="F12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>72</v>
@@ -2984,25 +2980,25 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>72</v>
@@ -3013,7 +3009,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3024,29 +3020,29 @@
         <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>72</v>
@@ -3095,25 +3091,25 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>72</v>
@@ -3124,7 +3120,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3144,16 +3140,16 @@
         <v>72</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3204,7 +3200,7 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
@@ -3216,13 +3212,13 @@
         <v>72</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>72</v>
@@ -3233,7 +3229,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3244,29 +3240,29 @@
         <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>72</v>
@@ -3315,25 +3311,25 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>72</v>
@@ -3344,7 +3340,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3364,22 +3360,22 @@
         <v>72</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>72</v>
@@ -3428,7 +3424,7 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
@@ -3440,13 +3436,13 @@
         <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>72</v>
@@ -3457,7 +3453,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3465,32 +3461,32 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="I17" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>72</v>
@@ -3515,52 +3511,52 @@
         <v>72</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="X17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>72</v>
@@ -3568,7 +3564,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3579,28 +3575,28 @@
         <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3626,47 +3622,47 @@
         <v>72</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>72</v>
@@ -3677,7 +3673,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3688,29 +3684,29 @@
         <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>72</v>
@@ -3735,49 +3731,49 @@
         <v>72</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="X19" t="s" s="2">
+      <c r="Y19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>72</v>
@@ -3788,7 +3784,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3796,31 +3792,31 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3846,52 +3842,52 @@
         <v>72</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>72</v>
@@ -3899,7 +3895,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3910,7 +3906,7 @@
         <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -3922,89 +3918,89 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="O21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P21" t="s" s="2">
+      <c r="Q21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="Q21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>72</v>
@@ -4012,7 +4008,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4023,28 +4019,28 @@
         <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4070,52 +4066,52 @@
         <v>72</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AK22" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>72</v>
@@ -4123,7 +4119,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4134,25 +4130,25 @@
         <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4203,25 +4199,25 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>72</v>
@@ -4232,7 +4228,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4243,31 +4239,31 @@
         <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>72</v>
@@ -4316,28 +4312,28 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>72</v>
@@ -4345,40 +4341,40 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>72</v>
@@ -4427,28 +4423,28 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>72</v>
@@ -4456,7 +4452,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4467,29 +4463,29 @@
         <v>73</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>72</v>
@@ -4538,28 +4534,28 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>72</v>
@@ -4567,7 +4563,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4578,25 +4574,25 @@
         <v>73</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4647,28 +4643,28 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>72</v>
@@ -4676,18 +4672,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>72</v>
@@ -4699,17 +4695,17 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>72</v>
@@ -4758,28 +4754,28 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AI28" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>72</v>
@@ -4787,40 +4783,40 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>72</v>
@@ -4869,25 +4865,25 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>72</v>
@@ -4898,7 +4894,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4909,29 +4905,29 @@
         <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J30" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>72</v>
@@ -4980,28 +4976,28 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>72</v>
@@ -5009,7 +5005,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5032,17 +5028,17 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>72</v>
@@ -5067,14 +5063,14 @@
         <v>72</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>72</v>
       </c>
@@ -5091,7 +5087,7 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
@@ -5103,16 +5099,16 @@
         <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>72</v>
@@ -5120,42 +5116,42 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>72</v>
@@ -5204,28 +5200,28 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AK32" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="AL32" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>72</v>
@@ -5233,7 +5229,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5244,29 +5240,29 @@
         <v>73</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J33" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>72</v>
@@ -5315,28 +5311,28 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>72</v>
@@ -5344,7 +5340,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5355,7 +5351,7 @@
         <v>73</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>72</v>
@@ -5367,16 +5363,16 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5402,60 +5398,60 @@
         <v>72</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5466,7 +5462,7 @@
         <v>73</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>72</v>
@@ -5478,16 +5474,16 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5537,28 +5533,28 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="AL35" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>72</v>
@@ -5566,7 +5562,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5589,13 +5585,13 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5646,7 +5642,7 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
@@ -5658,24 +5654,24 @@
         <v>72</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>331</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5698,13 +5694,13 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5755,7 +5751,7 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -5767,13 +5763,13 @@
         <v>72</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>72</v>
@@ -5784,11 +5780,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5807,16 +5803,16 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5866,7 +5862,7 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
@@ -5878,13 +5874,13 @@
         <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>72</v>
@@ -5895,7 +5891,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5906,7 +5902,7 @@
         <v>73</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>72</v>
@@ -5918,17 +5914,17 @@
         <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>72</v>
@@ -5977,25 +5973,25 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
@@ -6006,7 +6002,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6017,7 +6013,7 @@
         <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>72</v>
@@ -6029,13 +6025,13 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6086,25 +6082,25 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>
@@ -6115,11 +6111,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6138,16 +6134,16 @@
         <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K41" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="L41" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6197,7 +6193,7 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
@@ -6209,13 +6205,13 @@
         <v>72</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
@@ -6226,11 +6222,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6243,25 +6239,25 @@
         <v>72</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>72</v>
@@ -6310,7 +6306,7 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
@@ -6322,13 +6318,13 @@
         <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>72</v>
@@ -6339,7 +6335,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6350,7 +6346,7 @@
         <v>73</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>72</v>
@@ -6362,17 +6358,17 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>72</v>
@@ -6421,25 +6417,25 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>72</v>
@@ -6450,7 +6446,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6461,7 +6457,7 @@
         <v>73</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>72</v>
@@ -6473,19 +6469,19 @@
         <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>72</v>
@@ -6534,25 +6530,25 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>72</v>
@@ -6563,7 +6559,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6586,13 +6582,13 @@
         <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6643,7 +6639,7 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
@@ -6655,13 +6651,13 @@
         <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>72</v>
@@ -6672,11 +6668,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6686,7 +6682,7 @@
         <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>72</v>
@@ -6695,17 +6691,17 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>72</v>
@@ -6754,7 +6750,7 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
@@ -6766,13 +6762,13 @@
         <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>72</v>
@@ -6783,7 +6779,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6794,7 +6790,7 @@
         <v>73</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>72</v>
@@ -6806,13 +6802,13 @@
         <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6863,25 +6859,25 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>72</v>
@@ -6892,11 +6888,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6915,16 +6911,16 @@
         <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K48" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="L48" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6974,7 +6970,7 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
@@ -6986,13 +6982,13 @@
         <v>72</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>72</v>
@@ -7003,11 +6999,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7020,25 +7016,25 @@
         <v>72</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>72</v>
@@ -7087,7 +7083,7 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -7099,13 +7095,13 @@
         <v>72</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>72</v>
@@ -7116,18 +7112,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>72</v>
@@ -7139,19 +7135,19 @@
         <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>72</v>
@@ -7176,10 +7172,10 @@
         <v>72</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Y50" t="s" s="2">
         <v>72</v>
@@ -7200,25 +7196,25 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>72</v>
@@ -7229,7 +7225,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7237,10 +7233,10 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>72</v>
@@ -7252,13 +7248,13 @@
         <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7309,25 +7305,25 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>72</v>
@@ -7338,7 +7334,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7361,17 +7357,17 @@
         <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>72</v>
@@ -7420,7 +7416,7 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
@@ -7432,13 +7428,13 @@
         <v>72</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>72</v>
@@ -7449,7 +7445,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7460,7 +7456,7 @@
         <v>73</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>72</v>
@@ -7472,13 +7468,13 @@
         <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7529,25 +7525,25 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>72</v>
@@ -7558,11 +7554,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7581,16 +7577,16 @@
         <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K54" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="L54" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7640,7 +7636,7 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
@@ -7652,13 +7648,13 @@
         <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>72</v>
@@ -7669,11 +7665,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7686,25 +7682,25 @@
         <v>72</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>72</v>
@@ -7753,7 +7749,7 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>73</v>
@@ -7765,13 +7761,13 @@
         <v>72</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>72</v>
@@ -7782,18 +7778,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>72</v>
@@ -7805,17 +7801,17 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>72</v>
@@ -7840,10 +7836,10 @@
         <v>72</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Y56" t="s" s="2">
         <v>72</v>
@@ -7864,25 +7860,25 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>72</v>
@@ -7893,7 +7889,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7901,10 +7897,10 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>72</v>
@@ -7916,17 +7912,17 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>72</v>
@@ -7975,25 +7971,25 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>72</v>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="417">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-14T14:40:23+00:00</t>
+    <t>2022-10-14T20:29:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The task that is referred to in the referral prescription</t>
+    <t>The task that is referred to in the referral prescription (this is the common task for the execution of the prescription). The subtasks per performer can be found in BePerformerTask</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -806,7 +806,7 @@
 </t>
   </si>
   <si>
-    <t>Start and end time of execution</t>
+    <t>Start and end date of the treatment</t>
   </si>
   <si>
     <t>Identifies the time action was first taken against the task (start) and/or the time final action was taken against the task prior to marking it as completed (end).</t>
@@ -1208,7 +1208,7 @@
 </t>
   </si>
   <si>
-    <t>Elements to be executed or to be present before this task can start. Always use http://snomed.info/sct#704326004 as type</t>
+    <t>Information used to perform task</t>
   </si>
   <si>
     <t>Additional information that may be needed in the execution of the task.</t>
@@ -1254,57 +1254,53 @@
     <t>Task.input.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription|https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription-nursing-gen-medication)
-</t>
-  </si>
-  <si>
-    <t>Content to use in performing the task</t>
-  </si>
-  <si>
-    <t>The value of the input parameter as a basic type.</t>
-  </si>
-  <si>
-    <t>Task.output</t>
-  </si>
-  <si>
-    <t>Information produced as part of task</t>
-  </si>
-  <si>
-    <t>Outputs produced by the Task.</t>
-  </si>
-  <si>
-    <t>Resources and data produced during the execution the task.  This data is generated by the business logic of task execution, and is stored separately because it varies between workflows.</t>
-  </si>
-  <si>
-    <t>Task.output.id</t>
-  </si>
-  <si>
-    <t>Task.output.extension</t>
-  </si>
-  <si>
-    <t>Task.output.modifierExtension</t>
-  </si>
-  <si>
-    <t>Task.output.type</t>
-  </si>
-  <si>
-    <t>Label for output</t>
-  </si>
-  <si>
-    <t>The name of the Output parameter.</t>
-  </si>
-  <si>
-    <t>Outputs are named to enable task automation to bind data and pass it from one task to the next.</t>
-  </si>
-  <si>
-    <t>Codes to identify types of input parameters.  These will typically be specific to a particular workflow.  E.g. "Identified issues", "Preliminary results", "Filler order", "Final results", etc.</t>
-  </si>
-  <si>
-    <t>Task.output.value[x]</t>
-  </si>
-  <si>
     <t>base64Binary
 booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
+    <t>Content to use in performing the task</t>
+  </si>
+  <si>
+    <t>The value of the input parameter as a basic type.</t>
+  </si>
+  <si>
+    <t>Task.output</t>
+  </si>
+  <si>
+    <t>Information produced as part of task</t>
+  </si>
+  <si>
+    <t>Outputs produced by the Task.</t>
+  </si>
+  <si>
+    <t>Resources and data produced during the execution the task.  This data is generated by the business logic of task execution, and is stored separately because it varies between workflows.</t>
+  </si>
+  <si>
+    <t>Task.output.id</t>
+  </si>
+  <si>
+    <t>Task.output.extension</t>
+  </si>
+  <si>
+    <t>Task.output.modifierExtension</t>
+  </si>
+  <si>
+    <t>Task.output.type</t>
+  </si>
+  <si>
+    <t>Label for output</t>
+  </si>
+  <si>
+    <t>The name of the Output parameter.</t>
+  </si>
+  <si>
+    <t>Outputs are named to enable task automation to bind data and pass it from one task to the next.</t>
+  </si>
+  <si>
+    <t>Codes to identify types of input parameters.  These will typically be specific to a particular workflow.  E.g. "Identified issues", "Preliminary results", "Filler order", "Final results", etc.</t>
+  </si>
+  <si>
+    <t>Task.output.value[x]</t>
   </si>
   <si>
     <t>Result of output</t>
@@ -1640,7 +1636,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="114.58984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4561,7 +4557,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>253</v>
       </c>
@@ -4577,7 +4573,7 @@
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>72</v>
@@ -6666,7 +6662,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>381</v>
       </c>
@@ -6682,7 +6678,7 @@
         <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>72</v>
@@ -7912,17 +7908,17 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>72</v>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-14T20:29:20+00:00</t>
+    <t>2022-10-21T19:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T19:41:46+00:00</t>
+    <t>2022-10-24T13:30:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="432">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24T13:30:48+00:00</t>
+    <t>2022-10-25T13:43:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -821,6 +821,72 @@
     <t>FiveWs.done[x]</t>
   </si>
   <si>
+    <t>Task.executionPeriod.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Task.executionPeriod.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Task.executionPeriod.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-year-month-day}
+</t>
+  </si>
+  <si>
+    <t>Primitive Type dateTime</t>
+  </si>
+  <si>
+    <t>A date, date-time or partial date (e.g. just year or year + month).  If hours and minutes are specified, a time zone SHALL be populated. The format is a union of the schema types gYear, gYearMonth, date and dateTime. Seconds must be provided due to schema type constraints but may be zero-filled and may be ignored.                 Dates SHALL be valid dates.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+be-inv-year-month-day:date SHALL be of format YYYY-MM-DD {empty() or toString().length()=10}</t>
+  </si>
+  <si>
+    <t>Task.executionPeriod.end</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
     <t>Task.authoredOn</t>
   </si>
   <si>
@@ -1110,25 +1176,7 @@
     <t>Task.restriction.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Task.restriction.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Task.restriction.modifierExtension</t>
@@ -1617,7 +1665,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM57"/>
+  <dimension ref="A1:AM61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1653,7 +1701,7 @@
     <col min="25" max="25" width="85.453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -4672,7 +4720,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>261</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4691,18 +4739,16 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>265</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>72</v>
       </c>
@@ -4750,7 +4796,7 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
@@ -4759,19 +4805,19 @@
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>266</v>
+        <v>72</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>267</v>
+        <v>72</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>269</v>
+        <v>72</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>72</v>
@@ -4779,18 +4825,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>271</v>
+        <v>125</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>72</v>
@@ -4799,21 +4845,21 @@
         <v>72</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>262</v>
+        <v>126</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>272</v>
+        <v>127</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>72</v>
       </c>
@@ -4849,16 +4895,16 @@
         <v>72</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>72</v>
+        <v>268</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>72</v>
+        <v>269</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>270</v>
@@ -4867,19 +4913,19 @@
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>266</v>
+        <v>72</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>72</v>
@@ -4890,7 +4936,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4910,21 +4956,21 @@
         <v>72</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>72</v>
       </c>
@@ -4984,16 +5030,16 @@
         <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>92</v>
+        <v>277</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>281</v>
+        <v>72</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>282</v>
+        <v>72</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>283</v>
+        <v>72</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>72</v>
@@ -5001,7 +5047,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5012,7 +5058,7 @@
         <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>72</v>
@@ -5024,18 +5070,18 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>185</v>
+        <v>272</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>72</v>
       </c>
@@ -5059,13 +5105,13 @@
         <v>72</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>72</v>
@@ -5083,28 +5129,28 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>92</v>
+        <v>277</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>290</v>
+        <v>72</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>291</v>
+        <v>72</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>292</v>
+        <v>72</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>72</v>
@@ -5112,11 +5158,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5132,22 +5178,20 @@
         <v>72</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>72</v>
@@ -5196,7 +5240,7 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
@@ -5205,19 +5249,19 @@
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>72</v>
+        <v>287</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>72</v>
@@ -5225,11 +5269,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>72</v>
+        <v>292</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5248,17 +5292,17 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>72</v>
@@ -5307,7 +5351,7 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -5316,19 +5360,19 @@
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>72</v>
+        <v>287</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>307</v>
+        <v>72</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>309</v>
+        <v>72</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>72</v>
@@ -5336,7 +5380,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5356,21 +5400,21 @@
         <v>72</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>185</v>
+        <v>298</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>72</v>
       </c>
@@ -5394,10 +5438,10 @@
         <v>72</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>195</v>
+        <v>72</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>314</v>
+        <v>72</v>
       </c>
       <c r="Y34" t="s" s="2">
         <v>72</v>
@@ -5418,7 +5462,7 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
@@ -5433,21 +5477,21 @@
         <v>92</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>318</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5458,7 +5502,7 @@
         <v>73</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>72</v>
@@ -5470,18 +5514,18 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>72</v>
       </c>
@@ -5505,13 +5549,13 @@
         <v>72</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>72</v>
+        <v>309</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>72</v>
+        <v>310</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>72</v>
@@ -5529,13 +5573,13 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>72</v>
@@ -5544,13 +5588,13 @@
         <v>92</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>72</v>
@@ -5558,18 +5602,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>72</v>
+        <v>315</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>72</v>
@@ -5578,19 +5622,23 @@
         <v>72</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>72</v>
       </c>
@@ -5638,13 +5686,13 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>72</v>
@@ -5653,21 +5701,21 @@
         <v>92</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>72</v>
+        <v>313</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>330</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5678,7 +5726,7 @@
         <v>73</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>72</v>
@@ -5687,19 +5735,21 @@
         <v>72</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>72</v>
       </c>
@@ -5747,13 +5797,13 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>72</v>
@@ -5762,13 +5812,13 @@
         <v>92</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>72</v>
+        <v>330</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>72</v>
@@ -5776,18 +5826,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>338</v>
+        <v>72</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>72</v>
@@ -5799,16 +5849,16 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>339</v>
+        <v>185</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5834,10 +5884,10 @@
         <v>72</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="Y38" t="s" s="2">
         <v>72</v>
@@ -5858,13 +5908,13 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>72</v>
@@ -5873,21 +5923,21 @@
         <v>92</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>72</v>
+        <v>338</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>72</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5910,18 +5960,18 @@
         <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>346</v>
+        <v>156</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>72</v>
       </c>
@@ -5969,7 +6019,7 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
@@ -5984,13 +6034,13 @@
         <v>92</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>72</v>
+        <v>343</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>72</v>
+        <v>338</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>72</v>
@@ -5998,7 +6048,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6009,7 +6059,7 @@
         <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>72</v>
@@ -6021,13 +6071,13 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>227</v>
+        <v>346</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6078,40 +6128,40 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>72</v>
+        <v>349</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>72</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6130,17 +6180,15 @@
         <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>126</v>
+        <v>353</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>127</v>
+        <v>354</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>72</v>
@@ -6189,7 +6237,7 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
@@ -6201,13 +6249,13 @@
         <v>72</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>72</v>
+        <v>356</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
@@ -6218,11 +6266,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6235,13 +6283,13 @@
         <v>72</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>126</v>
+        <v>360</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>361</v>
@@ -6250,11 +6298,9 @@
         <v>362</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>72</v>
       </c>
@@ -6302,7 +6348,7 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
@@ -6314,13 +6360,13 @@
         <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>72</v>
+        <v>364</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>123</v>
+        <v>365</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>72</v>
@@ -6331,7 +6377,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6354,17 +6400,17 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>72</v>
@@ -6413,7 +6459,7 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
@@ -6431,7 +6477,7 @@
         <v>72</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>72</v>
@@ -6442,7 +6488,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6465,20 +6511,16 @@
         <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>371</v>
+        <v>261</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>72</v>
       </c>
@@ -6526,7 +6568,7 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>370</v>
+        <v>263</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
@@ -6538,13 +6580,13 @@
         <v>72</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>375</v>
+        <v>264</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>72</v>
@@ -6555,11 +6597,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6578,15 +6620,17 @@
         <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>377</v>
+        <v>126</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>378</v>
+        <v>127</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>72</v>
@@ -6635,7 +6679,7 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>376</v>
+        <v>270</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
@@ -6647,13 +6691,13 @@
         <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>380</v>
+        <v>264</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>72</v>
@@ -6664,11 +6708,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6681,23 +6725,25 @@
         <v>72</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>346</v>
+        <v>126</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="N46" t="s" s="2">
-        <v>385</v>
+        <v>135</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>72</v>
@@ -6746,7 +6792,7 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
@@ -6758,13 +6804,13 @@
         <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>386</v>
+        <v>123</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>72</v>
@@ -6775,7 +6821,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6798,16 +6844,18 @@
         <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>227</v>
+        <v>380</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>72</v>
       </c>
@@ -6855,7 +6903,7 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
@@ -6867,13 +6915,13 @@
         <v>72</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>72</v>
@@ -6884,18 +6932,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>72</v>
@@ -6907,18 +6955,20 @@
         <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>126</v>
+        <v>254</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>127</v>
+        <v>386</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>72</v>
       </c>
@@ -6966,25 +7016,25 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>72</v>
@@ -6995,11 +7045,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>360</v>
+        <v>72</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7012,26 +7062,22 @@
         <v>72</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>126</v>
+        <v>392</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>72</v>
       </c>
@@ -7079,7 +7125,7 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -7091,13 +7137,13 @@
         <v>72</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>123</v>
+        <v>395</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>72</v>
@@ -7108,18 +7154,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>72</v>
@@ -7131,19 +7177,17 @@
         <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>185</v>
+        <v>367</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>72</v>
@@ -7168,37 +7212,37 @@
         <v>72</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>195</v>
+        <v>72</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE50" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="AF50" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>72</v>
@@ -7210,7 +7254,7 @@
         <v>72</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>72</v>
@@ -7221,7 +7265,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7229,7 +7273,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>80</v>
@@ -7244,13 +7288,13 @@
         <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>398</v>
+        <v>227</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>399</v>
+        <v>261</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>400</v>
+        <v>262</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7301,10 +7345,10 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>397</v>
+        <v>263</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7313,13 +7357,13 @@
         <v>72</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>386</v>
+        <v>264</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>72</v>
@@ -7330,11 +7374,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7353,18 +7397,18 @@
         <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>346</v>
+        <v>126</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>402</v>
+        <v>127</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>72</v>
       </c>
@@ -7412,7 +7456,7 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>401</v>
+        <v>270</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
@@ -7424,13 +7468,13 @@
         <v>72</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>386</v>
+        <v>264</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>72</v>
@@ -7441,39 +7485,43 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>227</v>
+        <v>126</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>72</v>
       </c>
@@ -7521,25 +7569,25 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>355</v>
+        <v>123</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>72</v>
@@ -7550,18 +7598,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>125</v>
+        <v>406</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>72</v>
@@ -7573,18 +7621,20 @@
         <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>127</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>357</v>
+        <v>408</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>72</v>
       </c>
@@ -7608,10 +7658,10 @@
         <v>72</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>72</v>
+        <v>411</v>
       </c>
       <c r="Y54" t="s" s="2">
         <v>72</v>
@@ -7632,25 +7682,25 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>72</v>
@@ -7661,43 +7711,39 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>360</v>
+        <v>72</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>126</v>
+        <v>413</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>72</v>
       </c>
@@ -7745,25 +7791,25 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>123</v>
+        <v>401</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>72</v>
@@ -7774,18 +7820,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>391</v>
+        <v>72</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>72</v>
@@ -7797,17 +7843,17 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>185</v>
+        <v>367</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>72</v>
@@ -7832,10 +7878,10 @@
         <v>72</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>195</v>
+        <v>72</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>412</v>
+        <v>72</v>
       </c>
       <c r="Y56" t="s" s="2">
         <v>72</v>
@@ -7856,13 +7902,13 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>72</v>
@@ -7874,7 +7920,7 @@
         <v>72</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>72</v>
@@ -7885,7 +7931,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7893,7 +7939,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>80</v>
@@ -7908,18 +7954,16 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>398</v>
+        <v>227</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>414</v>
+        <v>261</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>415</v>
+        <v>262</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>416</v>
-      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>72</v>
       </c>
@@ -7967,35 +8011,481 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J61" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AF57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI57" t="s" s="2">
+      <c r="K61" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI61" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AJ61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM57">
+  <autoFilter ref="A1:AM61">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8005,7 +8495,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI56">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T13:43:34+00:00</t>
+    <t>2022-11-17T10:59:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="431">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T10:59:49+00:00</t>
+    <t>2022-11-17T12:13:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -643,10 +643,7 @@
 In most cases, Tasks will have an intent of "order".</t>
   </si>
   <si>
-    <t>Distinguishes whether the task is a proposal, plan or full order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/task-intent|4.0.1</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-request-intent</t>
   </si>
   <si>
     <t>Request.intent</t>
@@ -3826,7 +3823,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>198</v>
       </c>
@@ -3842,7 +3839,7 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>72</v>
@@ -3888,11 +3885,9 @@
       <c r="W20" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="X20" s="2"/>
+      <c r="Y20" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>72</v>
@@ -3925,13 +3920,13 @@
         <v>92</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>72</v>
@@ -3939,7 +3934,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3965,20 +3960,20 @@
         <v>100</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P21" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="Q21" t="s" s="2">
         <v>72</v>
@@ -4002,11 +3997,11 @@
         <v>179</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="Z21" t="s" s="2">
         <v>72</v>
       </c>
@@ -4023,7 +4018,7 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
@@ -4038,13 +4033,13 @@
         <v>92</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>72</v>
@@ -4052,7 +4047,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4078,13 +4073,13 @@
         <v>185</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4113,11 +4108,11 @@
         <v>195</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>222</v>
-      </c>
       <c r="Z22" t="s" s="2">
         <v>72</v>
       </c>
@@ -4134,7 +4129,7 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
@@ -4149,13 +4144,13 @@
         <v>92</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>72</v>
@@ -4163,7 +4158,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4186,13 +4181,13 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4243,7 +4238,7 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
@@ -4261,7 +4256,7 @@
         <v>72</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>72</v>
@@ -4272,7 +4267,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4298,16 +4293,16 @@
         <v>156</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>72</v>
@@ -4356,7 +4351,7 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
@@ -4374,10 +4369,10 @@
         <v>72</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>72</v>
@@ -4385,11 +4380,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4411,14 +4406,14 @@
         <v>156</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>72</v>
@@ -4467,7 +4462,7 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
@@ -4482,13 +4477,13 @@
         <v>92</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>72</v>
@@ -4496,7 +4491,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4519,17 +4514,17 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>72</v>
@@ -4578,7 +4573,7 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
@@ -4593,13 +4588,13 @@
         <v>92</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>72</v>
@@ -4607,7 +4602,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4630,13 +4625,13 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4687,7 +4682,7 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
@@ -4702,13 +4697,13 @@
         <v>92</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>72</v>
@@ -4716,7 +4711,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4739,13 +4734,13 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4796,25 +4791,25 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>72</v>
@@ -4825,7 +4820,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4854,7 +4849,7 @@
         <v>127</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>129</v>
@@ -4895,19 +4890,19 @@
         <v>72</v>
       </c>
       <c r="AA29" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AB29" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AB29" t="s" s="2">
+      <c r="AC29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD29" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AC29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD29" t="s" s="2">
+      <c r="AE29" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
@@ -4925,7 +4920,7 @@
         <v>72</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>72</v>
@@ -4936,7 +4931,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4959,16 +4954,16 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5018,19 +5013,19 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI30" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>72</v>
@@ -5047,7 +5042,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5070,16 +5065,16 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="M31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5129,7 +5124,7 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
@@ -5141,7 +5136,7 @@
         <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>72</v>
@@ -5158,11 +5153,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5181,17 +5176,17 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>72</v>
@@ -5240,7 +5235,7 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
@@ -5249,19 +5244,19 @@
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>72</v>
@@ -5269,11 +5264,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5292,17 +5287,17 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>72</v>
@@ -5351,7 +5346,7 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -5360,7 +5355,7 @@
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>92</v>
@@ -5369,7 +5364,7 @@
         <v>72</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>72</v>
@@ -5380,7 +5375,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5403,17 +5398,17 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>72</v>
@@ -5462,7 +5457,7 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
@@ -5477,13 +5472,13 @@
         <v>92</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>72</v>
@@ -5491,7 +5486,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5517,14 +5512,14 @@
         <v>185</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>72</v>
@@ -5552,11 +5547,11 @@
         <v>104</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>310</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>72</v>
       </c>
@@ -5573,7 +5568,7 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
@@ -5588,13 +5583,13 @@
         <v>92</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>72</v>
@@ -5602,11 +5597,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5625,19 +5620,19 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>72</v>
@@ -5686,7 +5681,7 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
@@ -5701,13 +5696,13 @@
         <v>92</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="AL36" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>72</v>
@@ -5715,7 +5710,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5738,17 +5733,17 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>72</v>
@@ -5797,7 +5792,7 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -5812,13 +5807,13 @@
         <v>92</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>72</v>
@@ -5826,7 +5821,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5852,13 +5847,13 @@
         <v>185</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5887,7 +5882,7 @@
         <v>195</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y38" t="s" s="2">
         <v>72</v>
@@ -5908,7 +5903,7 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
@@ -5923,21 +5918,21 @@
         <v>92</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>339</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5963,13 +5958,13 @@
         <v>156</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6019,7 +6014,7 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
@@ -6034,13 +6029,13 @@
         <v>92</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="AL39" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>72</v>
@@ -6048,7 +6043,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6071,13 +6066,13 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6128,7 +6123,7 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
@@ -6143,21 +6138,21 @@
         <v>92</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>351</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6180,13 +6175,13 @@
         <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6237,7 +6232,7 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
@@ -6252,10 +6247,10 @@
         <v>92</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
@@ -6266,11 +6261,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6289,16 +6284,16 @@
         <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6348,7 +6343,7 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
@@ -6363,10 +6358,10 @@
         <v>92</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>72</v>
@@ -6377,7 +6372,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6400,17 +6395,17 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>72</v>
@@ -6459,7 +6454,7 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
@@ -6477,7 +6472,7 @@
         <v>72</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>72</v>
@@ -6488,7 +6483,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6511,13 +6506,13 @@
         <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6568,25 +6563,25 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>72</v>
@@ -6597,7 +6592,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6626,7 +6621,7 @@
         <v>127</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>129</v>
@@ -6679,7 +6674,7 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
@@ -6697,7 +6692,7 @@
         <v>72</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>72</v>
@@ -6708,11 +6703,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6734,10 +6729,10 @@
         <v>126</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>129</v>
@@ -6792,7 +6787,7 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
@@ -6821,7 +6816,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6844,17 +6839,17 @@
         <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>72</v>
@@ -6903,7 +6898,7 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
@@ -6921,7 +6916,7 @@
         <v>72</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>72</v>
@@ -6932,7 +6927,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6955,19 +6950,19 @@
         <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>72</v>
@@ -7016,7 +7011,7 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
@@ -7034,7 +7029,7 @@
         <v>72</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>72</v>
@@ -7045,7 +7040,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7068,13 +7063,13 @@
         <v>72</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7125,7 +7120,7 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -7143,7 +7138,7 @@
         <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>72</v>
@@ -7154,11 +7149,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7177,17 +7172,17 @@
         <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>72</v>
@@ -7236,7 +7231,7 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
@@ -7254,7 +7249,7 @@
         <v>72</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>72</v>
@@ -7265,7 +7260,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7288,13 +7283,13 @@
         <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7345,25 +7340,25 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>72</v>
@@ -7374,7 +7369,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7403,7 +7398,7 @@
         <v>127</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>129</v>
@@ -7456,7 +7451,7 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
@@ -7474,7 +7469,7 @@
         <v>72</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>72</v>
@@ -7485,11 +7480,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7511,10 +7506,10 @@
         <v>126</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>129</v>
@@ -7569,7 +7564,7 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
@@ -7598,11 +7593,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7624,16 +7619,16 @@
         <v>185</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>72</v>
@@ -7661,7 +7656,7 @@
         <v>195</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Y54" t="s" s="2">
         <v>72</v>
@@ -7682,7 +7677,7 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>80</v>
@@ -7700,7 +7695,7 @@
         <v>72</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>72</v>
@@ -7711,7 +7706,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7734,13 +7729,13 @@
         <v>72</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7791,7 +7786,7 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>80</v>
@@ -7809,7 +7804,7 @@
         <v>72</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>72</v>
@@ -7820,7 +7815,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7843,17 +7838,17 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>72</v>
@@ -7902,7 +7897,7 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
@@ -7920,7 +7915,7 @@
         <v>72</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>72</v>
@@ -7931,7 +7926,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7954,13 +7949,13 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8011,25 +8006,25 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>72</v>
@@ -8040,7 +8035,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8069,7 +8064,7 @@
         <v>127</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>129</v>
@@ -8122,7 +8117,7 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
@@ -8140,7 +8135,7 @@
         <v>72</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>72</v>
@@ -8151,11 +8146,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8177,10 +8172,10 @@
         <v>126</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>129</v>
@@ -8235,7 +8230,7 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
@@ -8264,11 +8259,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8290,14 +8285,14 @@
         <v>185</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>72</v>
@@ -8325,7 +8320,7 @@
         <v>195</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Y60" t="s" s="2">
         <v>72</v>
@@ -8346,7 +8341,7 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>80</v>
@@ -8364,7 +8359,7 @@
         <v>72</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>72</v>
@@ -8375,7 +8370,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8398,17 +8393,17 @@
         <v>72</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>72</v>
@@ -8457,7 +8452,7 @@
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>80</v>
@@ -8475,7 +8470,7 @@
         <v>72</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>72</v>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T12:13:42+00:00</t>
+    <t>2022-11-24T13:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="432">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T13:50:37+00:00</t>
+    <t>2023-01-05T08:20:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -1662,7 +1665,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM61"/>
+  <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1672,44 +1675,44 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.42578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="85.453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="85.453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="55.72265625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="109.98828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="55.72265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="109.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="28.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1830,139 +1833,145 @@
       <c r="AM1" t="s" s="1">
         <v>71</v>
       </c>
+      <c r="AN1" t="s" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="AG2" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>82</v>
@@ -1976,107 +1985,110 @@
       <c r="M3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>89</v>
@@ -2084,108 +2096,111 @@
       <c r="L4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>95</v>
@@ -2196,107 +2211,110 @@
       <c r="M5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>101</v>
@@ -2307,31 +2325,31 @@
       <c r="M6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
         <v>105</v>
@@ -2340,74 +2358,77 @@
         <v>106</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>111</v>
@@ -2418,107 +2439,110 @@
       <c r="M7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B8" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>119</v>
@@ -2529,107 +2553,110 @@
       <c r="M8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B9" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>127</v>
@@ -2640,220 +2667,226 @@
       <c r="M9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>134</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>139</v>
@@ -2861,71 +2894,71 @@
       <c r="L11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>142</v>
@@ -2934,35 +2967,38 @@
         <v>143</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>72</v>
+        <v>144</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>146</v>
@@ -2970,221 +3006,227 @@
       <c r="L12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>148</v>
       </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>150</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="AM13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>157</v>
@@ -3192,219 +3234,225 @@
       <c r="L14" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>160</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>164</v>
       </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>166</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>169</v>
@@ -3419,179 +3467,182 @@
         <v>172</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>174</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>178</v>
       </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>175</v>
+        <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>182</v>
@@ -3600,35 +3651,38 @@
         <v>183</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>72</v>
+        <v>184</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>186</v>
@@ -3639,219 +3693,225 @@
       <c r="M18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="X18" s="2"/>
-      <c r="Y18" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>194</v>
       </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
         <v>196</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>200</v>
@@ -3859,68 +3919,68 @@
       <c r="M20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="X20" s="2"/>
-      <c r="Y20" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>204</v>
@@ -3929,111 +3989,114 @@
         <v>205</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>72</v>
+        <v>206</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>209</v>
       </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="Q21" t="s" s="2">
-        <v>72</v>
+        <v>211</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="Y21" t="s" s="2">
         <v>212</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>72</v>
+        <v>213</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>213</v>
+        <v>93</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>214</v>
@@ -4042,38 +4105,41 @@
         <v>215</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>72</v>
+        <v>216</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>218</v>
@@ -4081,70 +4147,70 @@
       <c r="M22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="Y22" t="s" s="2">
         <v>221</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>222</v>
+        <v>93</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>223</v>
@@ -4153,35 +4219,38 @@
         <v>224</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>72</v>
+        <v>225</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>227</v>
@@ -4189,111 +4258,114 @@
       <c r="L23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M23" s="2"/>
+      <c r="M23" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>73</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>72</v>
+        <v>230</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>232</v>
@@ -4305,179 +4377,182 @@
         <v>234</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="P24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>73</v>
+        <v>231</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>235</v>
+        <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>72</v>
+        <v>225</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B25" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>238</v>
+        <v>157</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>240</v>
       </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>236</v>
+        <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>242</v>
@@ -4486,35 +4561,38 @@
         <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>72</v>
+        <v>244</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>246</v>
@@ -4522,73 +4600,73 @@
       <c r="L26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>248</v>
       </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>249</v>
+        <v>93</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>250</v>
@@ -4597,35 +4675,38 @@
         <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>72</v>
+        <v>252</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>254</v>
@@ -4633,71 +4714,71 @@
       <c r="L27" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M27" s="2"/>
+      <c r="M27" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>252</v>
+        <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>256</v>
+        <v>93</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>257</v>
@@ -4706,255 +4787,264 @@
         <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>72</v>
+        <v>259</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M28" s="2"/>
+      <c r="M28" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>262</v>
+        <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>73</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>263</v>
+        <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>127</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>265</v>
+        <v>128</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>266</v>
+        <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
         <v>267</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>72</v>
+        <v>268</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>268</v>
+        <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>269</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>73</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>263</v>
+        <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>271</v>
+        <v>73</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>272</v>
@@ -4965,107 +5055,110 @@
       <c r="M30" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N30" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>275</v>
+        <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>73</v>
+        <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>276</v>
+        <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>72</v>
+        <v>277</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>271</v>
+        <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>272</v>
@@ -5074,109 +5167,112 @@
         <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>279</v>
+        <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>73</v>
+        <v>280</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>276</v>
+        <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>72</v>
+        <v>277</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B32" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>282</v>
+        <v>73</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>283</v>
@@ -5184,73 +5280,73 @@
       <c r="L32" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>285</v>
       </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>280</v>
+        <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>73</v>
+        <v>281</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>92</v>
+        <v>287</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>287</v>
+        <v>93</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>288</v>
@@ -5259,146 +5355,152 @@
         <v>289</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>72</v>
+        <v>290</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B33" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M33" s="2"/>
-      <c r="N33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>294</v>
       </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>290</v>
+        <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>92</v>
+        <v>287</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>295</v>
+        <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>72</v>
+        <v>296</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>298</v>
@@ -5406,73 +5508,73 @@
       <c r="L34" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>300</v>
       </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>296</v>
+        <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>73</v>
+        <v>297</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>301</v>
+        <v>93</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>302</v>
@@ -5481,109 +5583,112 @@
         <v>303</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>72</v>
+        <v>304</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>305</v>
+        <v>186</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>307</v>
       </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>308</v>
+        <v>105</v>
       </c>
       <c r="Y35" t="s" s="2">
         <v>309</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>72</v>
+        <v>310</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>304</v>
+        <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>73</v>
+        <v>305</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>310</v>
+        <v>93</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>311</v>
@@ -5592,35 +5697,38 @@
         <v>312</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>72</v>
+        <v>313</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B36" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>316</v>
@@ -5635,105 +5743,108 @@
         <v>319</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>313</v>
+        <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>73</v>
+        <v>314</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>320</v>
+        <v>93</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>321</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>72</v>
+        <v>313</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>323</v>
+        <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>324</v>
@@ -5741,73 +5852,73 @@
       <c r="L37" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M37" s="2"/>
-      <c r="N37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>326</v>
       </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="P37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>322</v>
+        <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>327</v>
+        <v>93</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>328</v>
@@ -5816,38 +5927,41 @@
         <v>329</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>72</v>
+        <v>330</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>331</v>
+        <v>186</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>332</v>
@@ -5855,70 +5969,70 @@
       <c r="M38" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N38" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>334</v>
+        <v>196</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>330</v>
+        <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>73</v>
+        <v>331</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>336</v>
@@ -5928,145 +6042,151 @@
       </c>
       <c r="AM38" t="s" s="2">
         <v>338</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>339</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>331</v>
+        <v>157</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N39" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>339</v>
+        <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>73</v>
+        <v>340</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>342</v>
+        <v>93</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>343</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>72</v>
+        <v>338</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>345</v>
+        <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>346</v>
@@ -6074,108 +6194,111 @@
       <c r="L40" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M40" s="2"/>
+      <c r="M40" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>344</v>
+        <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>73</v>
+        <v>345</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>348</v>
+        <v>93</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>349</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>72</v>
+        <v>350</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>350</v>
+        <v>73</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>351</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>353</v>
@@ -6183,108 +6306,111 @@
       <c r="L41" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M41" s="2"/>
+      <c r="M41" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>351</v>
+        <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>73</v>
+        <v>352</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>355</v>
+        <v>93</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>356</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>72</v>
+        <v>357</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B42" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>360</v>
@@ -6295,107 +6421,110 @@
       <c r="M42" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N42" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>357</v>
+        <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>73</v>
+        <v>358</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>363</v>
+        <v>93</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>364</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>72</v>
+        <v>365</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>366</v>
+        <v>73</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>367</v>
@@ -6403,443 +6532,455 @@
       <c r="L43" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>369</v>
       </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>365</v>
+        <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>73</v>
+        <v>366</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>370</v>
+        <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>72</v>
+        <v>371</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M44" s="2"/>
+      <c r="M44" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>262</v>
+        <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>73</v>
+        <v>263</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>263</v>
+        <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>127</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>265</v>
+        <v>128</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>269</v>
+        <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>73</v>
+        <v>270</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>263</v>
+        <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B46" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>375</v>
+        <v>127</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>376</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>129</v>
+        <v>377</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>377</v>
+        <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>73</v>
+        <v>378</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>379</v>
+        <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>380</v>
@@ -6847,113 +6988,116 @@
       <c r="L47" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>382</v>
       </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>378</v>
+        <v>73</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>73</v>
+        <v>379</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>383</v>
+        <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>72</v>
+        <v>384</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>253</v>
+        <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>385</v>
+        <v>254</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>386</v>
@@ -6965,105 +7109,108 @@
         <v>388</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>73</v>
+        <v>385</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>389</v>
+        <v>73</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>72</v>
+        <v>390</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>391</v>
+        <v>73</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>392</v>
@@ -7071,555 +7218,570 @@
       <c r="L49" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M49" s="2"/>
+      <c r="M49" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>390</v>
+        <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>73</v>
+        <v>391</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>394</v>
+        <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B50" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>366</v>
+        <v>73</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>399</v>
       </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>395</v>
+        <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>73</v>
+        <v>396</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>400</v>
+        <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>72</v>
+        <v>401</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M51" s="2"/>
+      <c r="M51" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>262</v>
+        <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>73</v>
+        <v>263</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>263</v>
+        <v>73</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>127</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>265</v>
+        <v>128</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>269</v>
+        <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>73</v>
+        <v>270</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>263</v>
+        <v>73</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>375</v>
+        <v>127</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>376</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>129</v>
+        <v>377</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>377</v>
+        <v>73</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>73</v>
+        <v>378</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="B54" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>406</v>
+        <v>186</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>407</v>
@@ -7631,105 +7793,108 @@
         <v>409</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>410</v>
+        <v>196</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>72</v>
+        <v>411</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>404</v>
+        <v>73</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>400</v>
+        <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>72</v>
+        <v>401</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>412</v>
+        <v>73</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>413</v>
@@ -7737,750 +7902,771 @@
       <c r="L55" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M55" s="2"/>
+      <c r="M55" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>411</v>
+        <v>73</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>400</v>
+        <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>72</v>
+        <v>401</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>366</v>
+        <v>73</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>418</v>
       </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>415</v>
+        <v>73</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>73</v>
+        <v>416</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>400</v>
+        <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>72</v>
+        <v>401</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M57" s="2"/>
+      <c r="M57" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>262</v>
+        <v>73</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>73</v>
+        <v>263</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>263</v>
+        <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>127</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>265</v>
+        <v>128</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>269</v>
+        <v>73</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>73</v>
+        <v>270</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>263</v>
+        <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>375</v>
+        <v>127</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>376</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>129</v>
+        <v>377</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>377</v>
+        <v>73</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>73</v>
+        <v>378</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>423</v>
+        <v>186</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>425</v>
       </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>426</v>
+        <v>196</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>72</v>
+        <v>427</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>422</v>
+        <v>73</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>400</v>
+        <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>72</v>
+        <v>401</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>412</v>
+        <v>73</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M61" s="2"/>
-      <c r="N61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>430</v>
       </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>427</v>
+        <v>73</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>400</v>
+        <v>73</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>72</v>
+        <v>401</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM61">
+  <autoFilter ref="A1:AN61">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="433">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-05T08:20:17+00:00</t>
+    <t>2023-01-24T07:53:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A task to be performed</t>
@@ -1865,13 +1869,13 @@
         <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1937,10 +1941,10 @@
         <v>73</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>73</v>
@@ -1951,10 +1955,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1965,7 +1969,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -1974,19 +1978,19 @@
         <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2036,13 +2040,13 @@
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -2065,10 +2069,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2079,7 +2083,7 @@
         <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>73</v>
@@ -2088,16 +2092,16 @@
         <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2148,19 +2152,19 @@
         <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>73</v>
@@ -2177,10 +2181,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2191,28 +2195,28 @@
         <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2262,19 +2266,19 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>73</v>
@@ -2291,10 +2295,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2305,7 +2309,7 @@
         <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -2317,16 +2321,16 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2352,13 +2356,13 @@
         <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>73</v>
@@ -2376,19 +2380,19 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>73</v>
@@ -2405,21 +2409,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
@@ -2431,16 +2435,16 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2490,25 +2494,25 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>73</v>
@@ -2519,14 +2523,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2545,16 +2549,16 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2604,7 +2608,7 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>74</v>
@@ -2622,7 +2626,7 @@
         <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>73</v>
@@ -2633,14 +2637,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2659,16 +2663,16 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2718,7 +2722,7 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
@@ -2730,13 +2734,13 @@
         <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>73</v>
@@ -2747,14 +2751,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2767,25 +2771,25 @@
         <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>73</v>
@@ -2834,7 +2838,7 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -2846,13 +2850,13 @@
         <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>73</v>
@@ -2863,10 +2867,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2889,13 +2893,13 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2946,7 +2950,7 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
@@ -2958,16 +2962,16 @@
         <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>73</v>
@@ -2975,10 +2979,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2989,7 +2993,7 @@
         <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
@@ -2998,20 +3002,20 @@
         <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>73</v>
@@ -3060,25 +3064,25 @@
         <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>73</v>
@@ -3089,10 +3093,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3103,7 +3107,7 @@
         <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -3112,20 +3116,20 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>73</v>
@@ -3174,25 +3178,25 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>73</v>
@@ -3203,10 +3207,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3226,16 +3230,16 @@
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3286,7 +3290,7 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>74</v>
@@ -3298,13 +3302,13 @@
         <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>73</v>
@@ -3315,10 +3319,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3329,7 +3333,7 @@
         <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>73</v>
@@ -3338,20 +3342,20 @@
         <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>73</v>
@@ -3400,25 +3404,25 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>73</v>
@@ -3429,10 +3433,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3452,22 +3456,22 @@
         <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>73</v>
@@ -3516,7 +3520,7 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
@@ -3528,13 +3532,13 @@
         <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>73</v>
@@ -3545,10 +3549,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3556,32 +3560,32 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>73</v>
@@ -3606,13 +3610,13 @@
         <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>73</v>
@@ -3630,28 +3634,28 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>73</v>
@@ -3659,10 +3663,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3673,28 +3677,28 @@
         <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3720,11 +3724,11 @@
         <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>73</v>
@@ -3742,25 +3746,25 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>73</v>
@@ -3771,10 +3775,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3785,7 +3789,7 @@
         <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>73</v>
@@ -3794,20 +3798,20 @@
         <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>73</v>
@@ -3832,10 +3836,10 @@
         <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>73</v>
@@ -3856,25 +3860,25 @@
         <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>73</v>
@@ -3885,10 +3889,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3896,31 +3900,31 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3946,11 +3950,11 @@
         <v>73</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>73</v>
@@ -3968,28 +3972,28 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>73</v>
@@ -3997,10 +4001,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4011,7 +4015,7 @@
         <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>73</v>
@@ -4023,23 +4027,23 @@
         <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>73</v>
@@ -4060,13 +4064,13 @@
         <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>73</v>
@@ -4084,28 +4088,28 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>73</v>
@@ -4113,10 +4117,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4127,7 +4131,7 @@
         <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>73</v>
@@ -4136,19 +4140,19 @@
         <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4174,13 +4178,13 @@
         <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>73</v>
@@ -4198,28 +4202,28 @@
         <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>73</v>
@@ -4227,10 +4231,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4241,7 +4245,7 @@
         <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>73</v>
@@ -4250,16 +4254,16 @@
         <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4310,25 +4314,25 @@
         <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>73</v>
@@ -4339,10 +4343,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4353,7 +4357,7 @@
         <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>73</v>
@@ -4362,22 +4366,22 @@
         <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>73</v>
@@ -4426,28 +4430,28 @@
         <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>73</v>
@@ -4455,21 +4459,21 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>73</v>
@@ -4478,20 +4482,20 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>73</v>
@@ -4540,28 +4544,28 @@
         <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>73</v>
@@ -4569,10 +4573,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4583,7 +4587,7 @@
         <v>74</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>73</v>
@@ -4592,20 +4596,20 @@
         <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>73</v>
@@ -4654,28 +4658,28 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>73</v>
@@ -4683,10 +4687,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4697,25 +4701,25 @@
         <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4766,28 +4770,28 @@
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>73</v>
@@ -4795,10 +4799,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4809,7 +4813,7 @@
         <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>73</v>
@@ -4821,13 +4825,13 @@
         <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4878,13 +4882,13 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>73</v>
@@ -4896,7 +4900,7 @@
         <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>73</v>
@@ -4907,14 +4911,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4933,16 +4937,16 @@
         <v>73</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4980,19 +4984,19 @@
         <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
@@ -5004,13 +5008,13 @@
         <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>73</v>
@@ -5021,10 +5025,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5035,7 +5039,7 @@
         <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>73</v>
@@ -5047,16 +5051,16 @@
         <v>73</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5106,19 +5110,19 @@
         <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>73</v>
@@ -5135,10 +5139,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5149,7 +5153,7 @@
         <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>73</v>
@@ -5161,16 +5165,16 @@
         <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5220,19 +5224,19 @@
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>73</v>
@@ -5249,21 +5253,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>73</v>
@@ -5275,17 +5279,17 @@
         <v>73</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>73</v>
@@ -5334,28 +5338,28 @@
         <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>73</v>
@@ -5363,21 +5367,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>73</v>
@@ -5386,20 +5390,20 @@
         <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>73</v>
@@ -5448,25 +5452,25 @@
         <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>73</v>
@@ -5477,10 +5481,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5491,7 +5495,7 @@
         <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>73</v>
@@ -5500,20 +5504,20 @@
         <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>73</v>
@@ -5562,28 +5566,28 @@
         <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>73</v>
@@ -5591,10 +5595,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5617,17 +5621,17 @@
         <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>73</v>
@@ -5652,13 +5656,13 @@
         <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>73</v>
@@ -5676,7 +5680,7 @@
         <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
@@ -5688,16 +5692,16 @@
         <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>73</v>
@@ -5705,21 +5709,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>73</v>
@@ -5728,22 +5732,22 @@
         <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>73</v>
@@ -5792,28 +5796,28 @@
         <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>73</v>
@@ -5821,10 +5825,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5835,7 +5839,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>73</v>
@@ -5844,20 +5848,20 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>73</v>
@@ -5906,28 +5910,28 @@
         <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>73</v>
@@ -5935,10 +5939,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5949,7 +5953,7 @@
         <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>73</v>
@@ -5961,16 +5965,16 @@
         <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5996,10 +6000,10 @@
         <v>73</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>73</v>
@@ -6020,39 +6024,39 @@
         <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6063,7 +6067,7 @@
         <v>74</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>73</v>
@@ -6075,16 +6079,16 @@
         <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6134,28 +6138,28 @@
         <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>73</v>
@@ -6163,10 +6167,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6189,13 +6193,13 @@
         <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6246,7 +6250,7 @@
         <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
@@ -6258,27 +6262,27 @@
         <v>73</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6301,13 +6305,13 @@
         <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6358,7 +6362,7 @@
         <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
@@ -6370,13 +6374,13 @@
         <v>73</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>73</v>
@@ -6387,14 +6391,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6413,16 +6417,16 @@
         <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6472,7 +6476,7 @@
         <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
@@ -6484,13 +6488,13 @@
         <v>73</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>73</v>
@@ -6501,10 +6505,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6515,7 +6519,7 @@
         <v>74</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>73</v>
@@ -6527,17 +6531,17 @@
         <v>73</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>73</v>
@@ -6586,25 +6590,25 @@
         <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>73</v>
@@ -6615,10 +6619,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6629,7 +6633,7 @@
         <v>74</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>73</v>
@@ -6641,13 +6645,13 @@
         <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6698,13 +6702,13 @@
         <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>73</v>
@@ -6716,7 +6720,7 @@
         <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>73</v>
@@ -6727,14 +6731,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6753,16 +6757,16 @@
         <v>73</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6812,7 +6816,7 @@
         <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>74</v>
@@ -6824,13 +6828,13 @@
         <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>73</v>
@@ -6841,14 +6845,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6861,25 +6865,25 @@
         <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>73</v>
@@ -6928,7 +6932,7 @@
         <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>74</v>
@@ -6940,13 +6944,13 @@
         <v>73</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>73</v>
@@ -6957,10 +6961,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6971,7 +6975,7 @@
         <v>74</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>73</v>
@@ -6983,17 +6987,17 @@
         <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>73</v>
@@ -7042,25 +7046,25 @@
         <v>73</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>73</v>
@@ -7071,10 +7075,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7085,7 +7089,7 @@
         <v>74</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>73</v>
@@ -7097,19 +7101,19 @@
         <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>73</v>
@@ -7158,25 +7162,25 @@
         <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>73</v>
@@ -7187,10 +7191,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7213,13 +7217,13 @@
         <v>73</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7270,7 +7274,7 @@
         <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
@@ -7282,13 +7286,13 @@
         <v>73</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>73</v>
@@ -7299,14 +7303,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7325,17 +7329,17 @@
         <v>73</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>73</v>
@@ -7384,7 +7388,7 @@
         <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>74</v>
@@ -7396,13 +7400,13 @@
         <v>73</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>73</v>
@@ -7413,10 +7417,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7427,7 +7431,7 @@
         <v>74</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>73</v>
@@ -7439,13 +7443,13 @@
         <v>73</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7496,13 +7500,13 @@
         <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>73</v>
@@ -7514,7 +7518,7 @@
         <v>73</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>73</v>
@@ -7525,14 +7529,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7551,16 +7555,16 @@
         <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7610,7 +7614,7 @@
         <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
@@ -7622,13 +7626,13 @@
         <v>73</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>73</v>
@@ -7639,14 +7643,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7659,25 +7663,25 @@
         <v>73</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>73</v>
@@ -7726,7 +7730,7 @@
         <v>73</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>74</v>
@@ -7738,13 +7742,13 @@
         <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>73</v>
@@ -7755,21 +7759,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>73</v>
@@ -7781,19 +7785,19 @@
         <v>73</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>73</v>
@@ -7818,10 +7822,10 @@
         <v>73</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>73</v>
@@ -7842,25 +7846,25 @@
         <v>73</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>73</v>
@@ -7871,10 +7875,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7882,10 +7886,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>73</v>
@@ -7897,13 +7901,13 @@
         <v>73</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7954,25 +7958,25 @@
         <v>73</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>73</v>
@@ -7983,10 +7987,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8009,17 +8013,17 @@
         <v>73</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>73</v>
@@ -8068,7 +8072,7 @@
         <v>73</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>74</v>
@@ -8080,13 +8084,13 @@
         <v>73</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>73</v>
@@ -8097,10 +8101,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8111,7 +8115,7 @@
         <v>74</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>73</v>
@@ -8123,13 +8127,13 @@
         <v>73</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8180,13 +8184,13 @@
         <v>73</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>73</v>
@@ -8198,7 +8202,7 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>73</v>
@@ -8209,14 +8213,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8235,16 +8239,16 @@
         <v>73</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8294,7 +8298,7 @@
         <v>73</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>74</v>
@@ -8306,13 +8310,13 @@
         <v>73</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>73</v>
@@ -8323,14 +8327,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8343,25 +8347,25 @@
         <v>73</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>73</v>
@@ -8410,7 +8414,7 @@
         <v>73</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>74</v>
@@ -8422,13 +8426,13 @@
         <v>73</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>73</v>
@@ -8439,21 +8443,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>73</v>
@@ -8465,17 +8469,17 @@
         <v>73</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>73</v>
@@ -8500,10 +8504,10 @@
         <v>73</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>73</v>
@@ -8524,25 +8528,25 @@
         <v>73</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>73</v>
@@ -8553,10 +8557,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8564,10 +8568,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>73</v>
@@ -8579,17 +8583,17 @@
         <v>73</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>73</v>
@@ -8638,25 +8642,25 @@
         <v>73</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>73</v>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-24T07:53:27+00:00</t>
+    <t>2023-01-24T08:49:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-24T08:49:19+00:00</t>
+    <t>2023-02-02T07:53:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T07:53:11+00:00</t>
+    <t>2023-02-10T09:12:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:12:07+00:00</t>
+    <t>2023-02-10T09:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:22:00+00:00</t>
+    <t>2023-02-10T15:47:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T15:47:03+00:00</t>
+    <t>2023-02-21T10:12:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T10:12:27+00:00</t>
+    <t>2023-02-21T10:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T10:12:31+00:00</t>
+    <t>2023-02-21T11:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:12:28+00:00</t>
+    <t>2023-02-21T11:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:12:51+00:00</t>
+    <t>2023-02-22T15:46:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:46:06+00:00</t>
+    <t>2023-02-22T15:46:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:46:17+00:00</t>
+    <t>2023-03-10T07:39:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T07:39:36+00:00</t>
+    <t>2023-03-17T13:10:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T13:10:55+00:00</t>
+    <t>2023-03-17T13:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T13:11:04+00:00</t>
+    <t>2023-04-19T13:57:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T13:57:37+00:00</t>
+    <t>2023-04-19T13:59:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T13:59:03+00:00</t>
+    <t>2023-04-20T18:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:37:34+00:00</t>
+    <t>2023-04-20T18:38:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:38:40+00:00</t>
+    <t>2023-04-20T18:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:40:27+00:00</t>
+    <t>2023-04-20T19:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:18:44+00:00</t>
+    <t>2023-04-20T19:23:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:23:54+00:00</t>
+    <t>2023-04-20T19:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:43:11+00:00</t>
+    <t>2023-04-21T10:15:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T10:15:27+00:00</t>
+    <t>2023-04-21T14:28:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:28:50+00:00</t>
+    <t>2023-04-21T14:29:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:29:36+00:00</t>
+    <t>2023-04-21T14:42:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:42:15+00:00</t>
+    <t>2023-04-21T14:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:42:33+00:00</t>
+    <t>2023-04-21T14:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:55:14+00:00</t>
+    <t>2023-04-21T14:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:56:41+00:00</t>
+    <t>2023-04-25T13:57:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T13:57:38+00:00</t>
+    <t>2023-04-28T07:14:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T07:14:58+00:00</t>
+    <t>2023-04-28T10:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T10:20:31+00:00</t>
+    <t>2023-04-28T10:21:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T10:21:40+00:00</t>
+    <t>2023-05-15T08:38:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T08:38:34+00:00</t>
+    <t>2023-05-15T10:07:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T10:07:26+00:00</t>
+    <t>2023-05-15T10:09:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T10:09:56+00:00</t>
+    <t>2023-05-16T06:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-16T06:48:43+00:00</t>
+    <t>2023-06-06T07:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:33:19+00:00</t>
+    <t>2023-06-06T07:37:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3224,7 +3224,7 @@
         <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>73</v>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:37:43+00:00</t>
+    <t>2023-06-06T07:38:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:38:08+00:00</t>
+    <t>2023-06-06T07:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:41:46+00:00</t>
+    <t>2023-06-06T07:41:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:41:53+00:00</t>
+    <t>2023-06-06T07:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:45:21+00:00</t>
+    <t>2023-06-08T08:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T08:30:17+00:00</t>
+    <t>2023-06-08T08:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$60</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="393">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T08:31:26+00:00</t>
+    <t>2023-06-14T06:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,126 +115,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t/>
@@ -1483,10 +1363,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1669,7 +1549,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN61"/>
+  <dimension ref="A1:AN60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1680,13 +1560,11 @@
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.42578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1697,6980 +1575,6859 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="85.453125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="55.72265625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="109.98828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="7.8203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="I1" t="s" s="1">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>43</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>72</v>
+      <c r="AM1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AN1" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>87</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>59</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="N6" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="N7" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="P14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O15" t="s" s="2">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q20" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="Q20" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y20" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="Z20" t="s" s="2">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>222</v>
+        <v>33</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>226</v>
+        <v>33</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>228</v>
+        <v>118</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>239</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>250</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>258</v>
+        <v>33</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>260</v>
+        <v>33</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>228</v>
+        <v>88</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>89</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>268</v>
+        <v>33</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>269</v>
+        <v>33</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>270</v>
+        <v>33</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>265</v>
+        <v>33</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>73</v>
+        <v>243</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="P31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>278</v>
+        <v>54</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>73</v>
+        <v>249</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>73</v>
+        <v>250</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>73</v>
+        <v>251</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>289</v>
+        <v>33</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>291</v>
+        <v>33</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>293</v>
+        <v>33</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>288</v>
+        <v>33</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>73</v>
+        <v>263</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>73</v>
+        <v>265</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>299</v>
+        <v>147</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>73</v>
+        <v>270</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>73</v>
+        <v>271</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>73</v>
+        <v>276</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>310</v>
+        <v>33</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>311</v>
+        <v>33</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>316</v>
+        <v>33</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>325</v>
+        <v>147</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>73</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>336</v>
+        <v>33</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>340</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>158</v>
+        <v>307</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>339</v>
+        <v>33</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>73</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>352</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>73</v>
+        <v>320</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>360</v>
+        <v>33</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="P42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>365</v>
+        <v>33</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>368</v>
+        <v>188</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>369</v>
+        <v>222</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>370</v>
+        <v>223</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>371</v>
-      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>372</v>
+        <v>225</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>228</v>
+        <v>88</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>262</v>
+        <v>89</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>127</v>
+        <v>336</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>129</v>
+        <v>337</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>267</v>
+        <v>338</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="P45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>265</v>
+        <v>85</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>376</v>
+        <v>33</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>128</v>
+        <v>341</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>137</v>
+        <v>344</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>125</v>
+        <v>345</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>381</v>
+        <v>215</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O47" t="s" s="2">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>255</v>
+        <v>353</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>73</v>
+        <v>358</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>393</v>
+        <v>328</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="P49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>398</v>
+        <v>33</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>368</v>
+        <v>188</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>399</v>
+        <v>222</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>400</v>
+        <v>223</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>401</v>
-      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>397</v>
+        <v>224</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>402</v>
+        <v>225</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>228</v>
+        <v>88</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>262</v>
+        <v>89</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>127</v>
+        <v>336</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>129</v>
+        <v>337</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>267</v>
+        <v>338</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="P52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>265</v>
+        <v>85</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>131</v>
+        <v>370</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>137</v>
+        <v>371</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>73</v>
+        <v>372</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>125</v>
+        <v>362</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>407</v>
+        <v>33</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>187</v>
+        <v>374</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>412</v>
+        <v>33</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>414</v>
+        <v>328</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="P55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>368</v>
+        <v>188</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>418</v>
+        <v>222</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>419</v>
+        <v>223</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>420</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>417</v>
+        <v>224</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>402</v>
+        <v>225</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>228</v>
+        <v>88</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>262</v>
+        <v>89</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>127</v>
+        <v>336</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>129</v>
+        <v>337</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>267</v>
+        <v>338</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="P58" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>265</v>
+        <v>85</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>137</v>
+        <v>387</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>73</v>
+        <v>388</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>125</v>
+        <v>362</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>407</v>
+        <v>33</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>187</v>
+        <v>374</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="P60" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>428</v>
+        <v>33</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN61">
+  <autoFilter ref="A1:AN60">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8680,7 +8437,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI59">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="394">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T06:47:29+00:00</t>
+    <t>2023-08-28T15:26:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>A task to be performed.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}</t>
   </si>
   <si>
     <t>Request, Event</t>
@@ -1695,13 +1699,13 @@
         <v>33</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>33</v>
@@ -1712,10 +1716,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1726,7 +1730,7 @@
         <v>34</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>33</v>
@@ -1735,19 +1739,19 @@
         <v>33</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1797,13 +1801,13 @@
         <v>33</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>33</v>
@@ -1826,10 +1830,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1840,7 +1844,7 @@
         <v>34</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>33</v>
@@ -1849,16 +1853,16 @@
         <v>33</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1909,19 +1913,19 @@
         <v>33</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>33</v>
@@ -1938,10 +1942,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1952,28 +1956,28 @@
         <v>34</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>33</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2023,19 +2027,19 @@
         <v>33</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>33</v>
@@ -2052,10 +2056,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2066,7 +2070,7 @@
         <v>34</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>33</v>
@@ -2078,16 +2082,16 @@
         <v>33</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2113,13 +2117,13 @@
         <v>33</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>33</v>
@@ -2137,19 +2141,19 @@
         <v>33</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>33</v>
@@ -2166,21 +2170,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>33</v>
@@ -2192,16 +2196,16 @@
         <v>33</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2251,25 +2255,25 @@
         <v>33</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>33</v>
@@ -2280,14 +2284,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2306,16 +2310,16 @@
         <v>33</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2365,7 +2369,7 @@
         <v>33</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>34</v>
@@ -2383,7 +2387,7 @@
         <v>33</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>33</v>
@@ -2394,14 +2398,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2420,16 +2424,16 @@
         <v>33</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2479,7 +2483,7 @@
         <v>33</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>34</v>
@@ -2491,13 +2495,13 @@
         <v>33</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>33</v>
@@ -2508,14 +2512,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2528,25 +2532,25 @@
         <v>33</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>33</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>33</v>
@@ -2595,7 +2599,7 @@
         <v>33</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>34</v>
@@ -2607,13 +2611,13 @@
         <v>33</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>33</v>
@@ -2624,10 +2628,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2650,13 +2654,13 @@
         <v>33</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2707,7 +2711,7 @@
         <v>33</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>34</v>
@@ -2719,16 +2723,16 @@
         <v>33</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>33</v>
@@ -2736,10 +2740,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2750,7 +2754,7 @@
         <v>34</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>33</v>
@@ -2759,20 +2763,20 @@
         <v>33</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>33</v>
@@ -2821,25 +2825,25 @@
         <v>33</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>33</v>
@@ -2850,10 +2854,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2864,7 +2868,7 @@
         <v>34</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>33</v>
@@ -2873,20 +2877,20 @@
         <v>33</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>33</v>
@@ -2935,25 +2939,25 @@
         <v>33</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>33</v>
@@ -2964,10 +2968,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2981,22 +2985,22 @@
         <v>35</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>33</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3047,7 +3051,7 @@
         <v>33</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>34</v>
@@ -3059,13 +3063,13 @@
         <v>33</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>33</v>
@@ -3076,10 +3080,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3090,7 +3094,7 @@
         <v>34</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>33</v>
@@ -3099,20 +3103,20 @@
         <v>33</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>33</v>
@@ -3161,25 +3165,25 @@
         <v>33</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>33</v>
@@ -3190,10 +3194,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3213,22 +3217,22 @@
         <v>33</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>33</v>
@@ -3277,7 +3281,7 @@
         <v>33</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>34</v>
@@ -3289,13 +3293,13 @@
         <v>33</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>33</v>
@@ -3306,10 +3310,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3317,32 +3321,32 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>33</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>33</v>
@@ -3367,13 +3371,13 @@
         <v>33</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>33</v>
@@ -3391,28 +3395,28 @@
         <v>33</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>33</v>
@@ -3420,10 +3424,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3434,28 +3438,28 @@
         <v>34</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>33</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3481,11 +3485,11 @@
         <v>33</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>33</v>
@@ -3503,25 +3507,25 @@
         <v>33</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>33</v>
@@ -3532,10 +3536,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3546,7 +3550,7 @@
         <v>34</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>33</v>
@@ -3555,20 +3559,20 @@
         <v>33</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>33</v>
@@ -3593,10 +3597,10 @@
         <v>33</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>33</v>
@@ -3617,25 +3621,25 @@
         <v>33</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>33</v>
@@ -3646,10 +3650,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3657,31 +3661,31 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>33</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3707,11 +3711,11 @@
         <v>33</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>33</v>
@@ -3729,28 +3733,28 @@
         <v>33</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>33</v>
@@ -3758,10 +3762,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3772,7 +3776,7 @@
         <v>34</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>33</v>
@@ -3784,23 +3788,23 @@
         <v>33</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>33</v>
       </c>
       <c r="Q20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>33</v>
@@ -3821,13 +3825,13 @@
         <v>33</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>33</v>
@@ -3845,28 +3849,28 @@
         <v>33</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>33</v>
@@ -3874,10 +3878,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3888,7 +3892,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>33</v>
@@ -3897,19 +3901,19 @@
         <v>33</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3935,13 +3939,13 @@
         <v>33</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>33</v>
@@ -3959,28 +3963,28 @@
         <v>33</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>33</v>
@@ -3988,10 +3992,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4002,7 +4006,7 @@
         <v>34</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>33</v>
@@ -4011,16 +4015,16 @@
         <v>33</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4071,25 +4075,25 @@
         <v>33</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>33</v>
@@ -4100,10 +4104,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4114,7 +4118,7 @@
         <v>34</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>33</v>
@@ -4123,22 +4127,22 @@
         <v>33</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>33</v>
@@ -4187,28 +4191,28 @@
         <v>33</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>33</v>
@@ -4216,21 +4220,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>33</v>
@@ -4239,20 +4243,20 @@
         <v>33</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>33</v>
@@ -4301,28 +4305,28 @@
         <v>33</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>33</v>
@@ -4330,10 +4334,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4344,7 +4348,7 @@
         <v>34</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>33</v>
@@ -4353,20 +4357,20 @@
         <v>33</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>33</v>
@@ -4415,28 +4419,28 @@
         <v>33</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>33</v>
@@ -4444,10 +4448,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4458,25 +4462,25 @@
         <v>34</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>33</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4527,28 +4531,28 @@
         <v>33</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>33</v>
@@ -4556,10 +4560,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4570,7 +4574,7 @@
         <v>34</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>33</v>
@@ -4582,13 +4586,13 @@
         <v>33</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4639,13 +4643,13 @@
         <v>33</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>33</v>
@@ -4657,7 +4661,7 @@
         <v>33</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>33</v>
@@ -4668,14 +4672,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4694,16 +4698,16 @@
         <v>33</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4741,19 +4745,19 @@
         <v>33</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>34</v>
@@ -4765,13 +4769,13 @@
         <v>33</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>33</v>
@@ -4782,10 +4786,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4796,7 +4800,7 @@
         <v>34</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>33</v>
@@ -4808,16 +4812,16 @@
         <v>33</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4867,19 +4871,19 @@
         <v>33</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>33</v>
@@ -4896,10 +4900,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4910,7 +4914,7 @@
         <v>34</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>33</v>
@@ -4922,16 +4926,16 @@
         <v>33</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4981,19 +4985,19 @@
         <v>33</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>33</v>
@@ -5010,21 +5014,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>33</v>
@@ -5036,17 +5040,17 @@
         <v>33</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>33</v>
@@ -5095,28 +5099,28 @@
         <v>33</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>33</v>
@@ -5124,21 +5128,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>33</v>
@@ -5147,20 +5151,20 @@
         <v>33</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>33</v>
@@ -5209,25 +5213,25 @@
         <v>33</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>33</v>
@@ -5238,10 +5242,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5252,7 +5256,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>33</v>
@@ -5261,20 +5265,20 @@
         <v>33</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>33</v>
@@ -5323,28 +5327,28 @@
         <v>33</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>33</v>
@@ -5352,10 +5356,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5378,17 +5382,17 @@
         <v>33</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>33</v>
@@ -5413,13 +5417,13 @@
         <v>33</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>33</v>
@@ -5437,7 +5441,7 @@
         <v>33</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>34</v>
@@ -5449,16 +5453,16 @@
         <v>33</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>33</v>
@@ -5466,21 +5470,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>33</v>
@@ -5489,22 +5493,22 @@
         <v>33</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>33</v>
@@ -5553,28 +5557,28 @@
         <v>33</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>33</v>
@@ -5582,10 +5586,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5596,7 +5600,7 @@
         <v>34</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>33</v>
@@ -5605,20 +5609,20 @@
         <v>33</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>33</v>
@@ -5667,28 +5671,28 @@
         <v>33</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>33</v>
@@ -5696,10 +5700,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5710,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>33</v>
@@ -5722,16 +5726,16 @@
         <v>33</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5757,10 +5761,10 @@
         <v>33</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>33</v>
@@ -5781,39 +5785,39 @@
         <v>33</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5824,7 +5828,7 @@
         <v>34</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>33</v>
@@ -5836,16 +5840,16 @@
         <v>33</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5895,28 +5899,28 @@
         <v>33</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>33</v>
@@ -5924,10 +5928,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5950,13 +5954,13 @@
         <v>33</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6007,7 +6011,7 @@
         <v>33</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>34</v>
@@ -6019,27 +6023,27 @@
         <v>33</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6062,13 +6066,13 @@
         <v>33</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6119,7 +6123,7 @@
         <v>33</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>34</v>
@@ -6131,13 +6135,13 @@
         <v>33</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>33</v>
@@ -6148,14 +6152,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6174,16 +6178,16 @@
         <v>33</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6233,7 +6237,7 @@
         <v>33</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>34</v>
@@ -6245,13 +6249,13 @@
         <v>33</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>33</v>
@@ -6262,10 +6266,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6276,7 +6280,7 @@
         <v>34</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>33</v>
@@ -6288,17 +6292,17 @@
         <v>33</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>33</v>
@@ -6347,25 +6351,25 @@
         <v>33</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>33</v>
@@ -6376,10 +6380,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6390,7 +6394,7 @@
         <v>34</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>33</v>
@@ -6402,13 +6406,13 @@
         <v>33</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6459,13 +6463,13 @@
         <v>33</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>33</v>
@@ -6477,7 +6481,7 @@
         <v>33</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>33</v>
@@ -6488,14 +6492,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6514,16 +6518,16 @@
         <v>33</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6573,7 +6577,7 @@
         <v>33</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>34</v>
@@ -6585,13 +6589,13 @@
         <v>33</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>33</v>
@@ -6602,14 +6606,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6622,25 +6626,25 @@
         <v>33</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>33</v>
@@ -6689,7 +6693,7 @@
         <v>33</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>34</v>
@@ -6701,13 +6705,13 @@
         <v>33</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>33</v>
@@ -6718,10 +6722,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6732,7 +6736,7 @@
         <v>34</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>33</v>
@@ -6744,17 +6748,17 @@
         <v>33</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>33</v>
@@ -6803,25 +6807,25 @@
         <v>33</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>33</v>
@@ -6832,10 +6836,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6846,7 +6850,7 @@
         <v>34</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>33</v>
@@ -6858,19 +6862,19 @@
         <v>33</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>33</v>
@@ -6919,25 +6923,25 @@
         <v>33</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>33</v>
@@ -6948,10 +6952,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6974,13 +6978,13 @@
         <v>33</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7031,7 +7035,7 @@
         <v>33</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>34</v>
@@ -7043,13 +7047,13 @@
         <v>33</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>33</v>
@@ -7060,14 +7064,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7086,17 +7090,17 @@
         <v>33</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>33</v>
@@ -7145,7 +7149,7 @@
         <v>33</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>34</v>
@@ -7157,13 +7161,13 @@
         <v>33</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>33</v>
@@ -7174,10 +7178,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7188,7 +7192,7 @@
         <v>34</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>33</v>
@@ -7200,13 +7204,13 @@
         <v>33</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7257,13 +7261,13 @@
         <v>33</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>33</v>
@@ -7275,7 +7279,7 @@
         <v>33</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>33</v>
@@ -7286,14 +7290,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7312,16 +7316,16 @@
         <v>33</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7371,7 +7375,7 @@
         <v>33</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>34</v>
@@ -7383,13 +7387,13 @@
         <v>33</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>33</v>
@@ -7400,14 +7404,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7420,25 +7424,25 @@
         <v>33</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>33</v>
@@ -7487,7 +7491,7 @@
         <v>33</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>34</v>
@@ -7499,13 +7503,13 @@
         <v>33</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>33</v>
@@ -7516,21 +7520,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>33</v>
@@ -7542,19 +7546,19 @@
         <v>33</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>33</v>
@@ -7579,10 +7583,10 @@
         <v>33</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>33</v>
@@ -7603,25 +7607,25 @@
         <v>33</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>33</v>
@@ -7632,10 +7636,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7643,10 +7647,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>33</v>
@@ -7658,13 +7662,13 @@
         <v>33</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7715,25 +7719,25 @@
         <v>33</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>33</v>
@@ -7744,10 +7748,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7770,17 +7774,17 @@
         <v>33</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>33</v>
@@ -7829,7 +7833,7 @@
         <v>33</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>34</v>
@@ -7841,13 +7845,13 @@
         <v>33</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>33</v>
@@ -7858,10 +7862,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7872,7 +7876,7 @@
         <v>34</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>33</v>
@@ -7884,13 +7888,13 @@
         <v>33</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7941,13 +7945,13 @@
         <v>33</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>33</v>
@@ -7959,7 +7963,7 @@
         <v>33</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>33</v>
@@ -7970,14 +7974,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7996,16 +8000,16 @@
         <v>33</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8055,7 +8059,7 @@
         <v>33</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>34</v>
@@ -8067,13 +8071,13 @@
         <v>33</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>33</v>
@@ -8084,14 +8088,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8104,25 +8108,25 @@
         <v>33</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>33</v>
@@ -8171,7 +8175,7 @@
         <v>33</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>34</v>
@@ -8183,13 +8187,13 @@
         <v>33</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>33</v>
@@ -8200,21 +8204,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>33</v>
@@ -8226,17 +8230,17 @@
         <v>33</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>33</v>
@@ -8261,10 +8265,10 @@
         <v>33</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>33</v>
@@ -8285,25 +8289,25 @@
         <v>33</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>33</v>
@@ -8314,10 +8318,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8325,10 +8329,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>33</v>
@@ -8340,17 +8344,17 @@
         <v>33</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>33</v>
@@ -8399,25 +8403,25 @@
         <v>33</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>33</v>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-28T15:26:36+00:00</t>
+    <t>2023-08-28T15:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-28T15:28:15+00:00</t>
+    <t>2023-09-01T06:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T06:47:50+00:00</t>
+    <t>2023-09-05T14:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T14:28:58+00:00</t>
+    <t>2023-09-29T14:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:04:57+00:00</t>
+    <t>2023-09-29T14:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:06:01+00:00</t>
+    <t>2023-09-29T14:14:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:14:49+00:00</t>
+    <t>2023-09-29T14:15:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="434">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:15:09+00:00</t>
+    <t>2024-03-15T09:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,6 +115,126 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t/>
@@ -1553,7 +1673,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN60"/>
+  <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1564,11 +1684,13 @@
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.42578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1579,6859 +1701,6980 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="85.453125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="55.72265625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="109.98828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="16.3984375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="7.8203125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="28.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>34</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>35</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="AM1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AN1" t="s" s="2">
-        <v>33</v>
+      <c r="J1" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>72</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>48</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>60</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>111</v>
-      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>127</v>
-      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="Y17" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="Q20" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="Y21" t="s" s="2">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>33</v>
+        <v>223</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>33</v>
+        <v>224</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>119</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>189</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>90</v>
+        <v>263</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>33</v>
+        <v>269</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>33</v>
+        <v>270</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>33</v>
+        <v>271</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>239</v>
+        <v>134</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>33</v>
+        <v>266</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>55</v>
+        <v>279</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>250</v>
+        <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>251</v>
+        <v>73</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>252</v>
+        <v>73</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>33</v>
+        <v>290</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>33</v>
+        <v>292</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>33</v>
+        <v>294</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>33</v>
+        <v>289</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>264</v>
+        <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>266</v>
+        <v>73</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>148</v>
+        <v>300</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>271</v>
+        <v>73</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>272</v>
+        <v>73</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>277</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>278</v>
+        <v>188</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>33</v>
+        <v>311</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>33</v>
+        <v>312</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>33</v>
+        <v>317</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O36" t="s" s="2">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>148</v>
+        <v>326</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="P37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>297</v>
+        <v>73</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>301</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>33</v>
+        <v>337</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>33</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>308</v>
+        <v>159</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>33</v>
+        <v>340</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>313</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>33</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>33</v>
+        <v>361</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>33</v>
+        <v>366</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>189</v>
+        <v>369</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>224</v>
+        <v>371</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="P43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>225</v>
+        <v>368</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>226</v>
+        <v>373</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>90</v>
+        <v>263</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>337</v>
+        <v>128</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>339</v>
+        <v>268</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>340</v>
+        <v>272</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>86</v>
+        <v>266</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>33</v>
+        <v>377</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>342</v>
+        <v>129</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>345</v>
+        <v>138</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>346</v>
+        <v>126</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>216</v>
+        <v>382</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>354</v>
+        <v>256</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="P48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>329</v>
+        <v>394</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>362</v>
-      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>33</v>
+        <v>399</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>189</v>
+        <v>369</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>223</v>
+        <v>400</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>224</v>
+        <v>401</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="P50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>225</v>
+        <v>398</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>226</v>
+        <v>403</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>90</v>
+        <v>263</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>337</v>
+        <v>128</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>339</v>
+        <v>268</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>340</v>
+        <v>272</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>86</v>
+        <v>266</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>371</v>
+        <v>132</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>372</v>
+        <v>138</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>373</v>
+        <v>73</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>363</v>
+        <v>126</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>33</v>
+        <v>408</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>375</v>
+        <v>188</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="P54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>33</v>
+        <v>413</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>329</v>
+        <v>415</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>381</v>
-      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>189</v>
+        <v>369</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>223</v>
+        <v>419</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>224</v>
+        <v>420</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="P56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>225</v>
+        <v>418</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>226</v>
+        <v>403</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>90</v>
+        <v>263</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>337</v>
+        <v>128</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>339</v>
+        <v>268</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>340</v>
+        <v>272</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>86</v>
+        <v>266</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O59" t="s" s="2">
-        <v>388</v>
+        <v>138</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>389</v>
+        <v>73</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>363</v>
+        <v>126</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>33</v>
+        <v>408</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>375</v>
+        <v>188</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="P60" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>33</v>
+        <v>429</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN60">
+  <autoFilter ref="A1:AN61">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8441,7 +8684,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI59">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T09:11:04+00:00</t>
+    <t>2024-03-15T09:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="435">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T09:12:22+00:00</t>
+    <t>2024-09-24T14:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -654,7 +654,7 @@
 In most cases, Tasks will have an intent of "order".</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-request-intent</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-task-intent</t>
   </si>
   <si>
     <t>Request.intent</t>
@@ -740,6 +740,10 @@
   </si>
   <si>
     <t>Task.focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referral-servicerequest|https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-annex-81)
+</t>
   </si>
   <si>
     <t>What task is acting on</t>
@@ -4373,19 +4377,19 @@
         <v>84</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>73</v>
@@ -4452,7 +4456,7 @@
         <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>227</v>
@@ -4463,14 +4467,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4492,14 +4496,14 @@
         <v>159</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>73</v>
@@ -4548,7 +4552,7 @@
         <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>74</v>
@@ -4563,13 +4567,13 @@
         <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>73</v>
@@ -4577,10 +4581,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4603,17 +4607,17 @@
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>73</v>
@@ -4662,7 +4666,7 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
@@ -4677,13 +4681,13 @@
         <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>73</v>
@@ -4691,10 +4695,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4717,13 +4721,13 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4774,7 +4778,7 @@
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>74</v>
@@ -4789,13 +4793,13 @@
         <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>73</v>
@@ -4803,10 +4807,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4832,10 +4836,10 @@
         <v>229</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4886,7 +4890,7 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
@@ -4904,7 +4908,7 @@
         <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>73</v>
@@ -4915,10 +4919,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4947,7 +4951,7 @@
         <v>130</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>132</v>
@@ -4988,19 +4992,19 @@
         <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
@@ -5018,7 +5022,7 @@
         <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>73</v>
@@ -5029,10 +5033,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5055,16 +5059,16 @@
         <v>73</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5114,7 +5118,7 @@
         <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
@@ -5126,7 +5130,7 @@
         <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>73</v>
@@ -5143,10 +5147,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5169,16 +5173,16 @@
         <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5228,7 +5232,7 @@
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
@@ -5240,7 +5244,7 @@
         <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>73</v>
@@ -5257,14 +5261,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5283,17 +5287,17 @@
         <v>73</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>73</v>
@@ -5342,7 +5346,7 @@
         <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>74</v>
@@ -5351,19 +5355,19 @@
         <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>73</v>
@@ -5371,14 +5375,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5397,17 +5401,17 @@
         <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>73</v>
@@ -5456,7 +5460,7 @@
         <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
@@ -5465,7 +5469,7 @@
         <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>95</v>
@@ -5474,7 +5478,7 @@
         <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>73</v>
@@ -5485,10 +5489,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5511,17 +5515,17 @@
         <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>73</v>
@@ -5570,7 +5574,7 @@
         <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
@@ -5585,13 +5589,13 @@
         <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>73</v>
@@ -5599,10 +5603,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5628,14 +5632,14 @@
         <v>188</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>73</v>
@@ -5663,10 +5667,10 @@
         <v>107</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>73</v>
@@ -5684,7 +5688,7 @@
         <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
@@ -5699,13 +5703,13 @@
         <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>73</v>
@@ -5713,14 +5717,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5739,19 +5743,19 @@
         <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>73</v>
@@ -5800,7 +5804,7 @@
         <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
@@ -5815,13 +5819,13 @@
         <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>73</v>
@@ -5829,10 +5833,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5855,17 +5859,17 @@
         <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>73</v>
@@ -5914,7 +5918,7 @@
         <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
@@ -5929,13 +5933,13 @@
         <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>73</v>
@@ -5943,10 +5947,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5972,13 +5976,13 @@
         <v>188</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6007,7 +6011,7 @@
         <v>198</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>73</v>
@@ -6028,7 +6032,7 @@
         <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>74</v>
@@ -6043,24 +6047,24 @@
         <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6086,13 +6090,13 @@
         <v>159</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6142,7 +6146,7 @@
         <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
@@ -6157,13 +6161,13 @@
         <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>73</v>
@@ -6171,10 +6175,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6197,13 +6201,13 @@
         <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6254,7 +6258,7 @@
         <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
@@ -6269,24 +6273,24 @@
         <v>95</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6309,13 +6313,13 @@
         <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6366,7 +6370,7 @@
         <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
@@ -6381,10 +6385,10 @@
         <v>95</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>73</v>
@@ -6395,14 +6399,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6421,16 +6425,16 @@
         <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6480,7 +6484,7 @@
         <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
@@ -6495,10 +6499,10 @@
         <v>95</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>73</v>
@@ -6509,10 +6513,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6535,17 +6539,17 @@
         <v>73</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>73</v>
@@ -6594,7 +6598,7 @@
         <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
@@ -6612,7 +6616,7 @@
         <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>73</v>
@@ -6623,10 +6627,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6652,10 +6656,10 @@
         <v>229</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6706,7 +6710,7 @@
         <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>74</v>
@@ -6724,7 +6728,7 @@
         <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>73</v>
@@ -6735,10 +6739,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6767,7 +6771,7 @@
         <v>130</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>132</v>
@@ -6820,7 +6824,7 @@
         <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>74</v>
@@ -6838,7 +6842,7 @@
         <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>73</v>
@@ -6849,14 +6853,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6878,10 +6882,10 @@
         <v>129</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>132</v>
@@ -6936,7 +6940,7 @@
         <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>74</v>
@@ -6965,10 +6969,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6991,17 +6995,17 @@
         <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>73</v>
@@ -7050,7 +7054,7 @@
         <v>73</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>74</v>
@@ -7068,7 +7072,7 @@
         <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>73</v>
@@ -7079,10 +7083,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7105,19 +7109,19 @@
         <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>73</v>
@@ -7166,7 +7170,7 @@
         <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
@@ -7184,7 +7188,7 @@
         <v>73</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>73</v>
@@ -7195,10 +7199,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7221,13 +7225,13 @@
         <v>73</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7278,7 +7282,7 @@
         <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
@@ -7296,7 +7300,7 @@
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>73</v>
@@ -7307,14 +7311,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7333,17 +7337,17 @@
         <v>73</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>73</v>
@@ -7392,7 +7396,7 @@
         <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>74</v>
@@ -7410,7 +7414,7 @@
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>73</v>
@@ -7421,10 +7425,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7450,10 +7454,10 @@
         <v>229</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7504,7 +7508,7 @@
         <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>74</v>
@@ -7522,7 +7526,7 @@
         <v>73</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>73</v>
@@ -7533,10 +7537,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7565,7 +7569,7 @@
         <v>130</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>132</v>
@@ -7618,7 +7622,7 @@
         <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
@@ -7636,7 +7640,7 @@
         <v>73</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>73</v>
@@ -7647,14 +7651,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7676,10 +7680,10 @@
         <v>129</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>132</v>
@@ -7734,7 +7738,7 @@
         <v>73</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>74</v>
@@ -7763,14 +7767,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7792,16 +7796,16 @@
         <v>188</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>73</v>
@@ -7829,7 +7833,7 @@
         <v>198</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>73</v>
@@ -7850,7 +7854,7 @@
         <v>73</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>83</v>
@@ -7868,7 +7872,7 @@
         <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>73</v>
@@ -7879,10 +7883,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7905,13 +7909,13 @@
         <v>73</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7962,7 +7966,7 @@
         <v>73</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>83</v>
@@ -7980,7 +7984,7 @@
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>73</v>
@@ -7991,10 +7995,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8017,17 +8021,17 @@
         <v>73</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>73</v>
@@ -8076,7 +8080,7 @@
         <v>73</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>74</v>
@@ -8094,7 +8098,7 @@
         <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>73</v>
@@ -8105,10 +8109,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8134,10 +8138,10 @@
         <v>229</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8188,7 +8192,7 @@
         <v>73</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>74</v>
@@ -8206,7 +8210,7 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>73</v>
@@ -8217,10 +8221,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8249,7 +8253,7 @@
         <v>130</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>132</v>
@@ -8302,7 +8306,7 @@
         <v>73</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>74</v>
@@ -8320,7 +8324,7 @@
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>73</v>
@@ -8331,14 +8335,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8360,10 +8364,10 @@
         <v>129</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>132</v>
@@ -8418,7 +8422,7 @@
         <v>73</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>74</v>
@@ -8447,14 +8451,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8476,14 +8480,14 @@
         <v>188</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>73</v>
@@ -8511,7 +8515,7 @@
         <v>198</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>73</v>
@@ -8532,7 +8536,7 @@
         <v>73</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>83</v>
@@ -8550,7 +8554,7 @@
         <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>73</v>
@@ -8561,10 +8565,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8587,17 +8591,17 @@
         <v>73</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>73</v>
@@ -8646,7 +8650,7 @@
         <v>73</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>83</v>
@@ -8664,7 +8668,7 @@
         <v>73</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>73</v>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T14:40:03+00:00</t>
+    <t>2024-09-24T14:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-referral-task.xlsx
+++ b/branches/StructureDefinition-be-referral-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T14:41:18+00:00</t>
+    <t>2024-09-24T14:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
